--- a/excel/SWH_capacity_formatting_18-07-2025.xlsx
+++ b/excel/SWH_capacity_formatting_18-07-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EECA_SWH_LCA\EECA_SWH_LCA\EECA_SWH_LCA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50E4A6F8-B307-4E72-BB4B-F153F8F406D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63100119-41AF-4BDE-A5C0-2A94FA0F506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6082697E-4C28-401D-8DB0-60DD22A0610C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{6082697E-4C28-401D-8DB0-60DD22A0610C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T195"/>
     </sheetView>
   </sheetViews>
@@ -1367,7 +1367,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E2&amp;"|"&amp;B2,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>29.961716365757649</v>
       </c>
       <c r="R2" s="5" cm="1">
         <f t="array" ref="R2">_xlfn.SWITCH(F2,"R",_xlfn.XLOOKUP(E2&amp;"|"&amp;B2,
@@ -1478,7 +1478,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E3&amp;"|"&amp;B3,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>29.961716365757649</v>
       </c>
       <c r="R3" s="5" cm="1">
         <f t="array" ref="R3">_xlfn.SWITCH(F3,"R",_xlfn.XLOOKUP(E3&amp;"|"&amp;B3,
@@ -1589,7 +1589,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E4&amp;"|"&amp;B4,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>21.380662571865884</v>
       </c>
       <c r="R4" s="5" cm="1">
         <f t="array" ref="R4">_xlfn.SWITCH(F4,"R",_xlfn.XLOOKUP(E4&amp;"|"&amp;B4,
@@ -1700,7 +1700,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E5&amp;"|"&amp;B5,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>21.380662571865884</v>
       </c>
       <c r="R5" s="5" cm="1">
         <f t="array" ref="R5">_xlfn.SWITCH(F5,"R",_xlfn.XLOOKUP(E5&amp;"|"&amp;B5,
@@ -1811,7 +1811,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E6&amp;"|"&amp;B6,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>35.288889030508237</v>
       </c>
       <c r="R6" s="5" cm="1">
         <f t="array" ref="R6">_xlfn.SWITCH(F6,"R",_xlfn.XLOOKUP(E6&amp;"|"&amp;B6,
@@ -1922,7 +1922,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E7&amp;"|"&amp;B7,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>35.288889030508237</v>
       </c>
       <c r="R7" s="5" cm="1">
         <f t="array" ref="R7">_xlfn.SWITCH(F7,"R",_xlfn.XLOOKUP(E7&amp;"|"&amp;B7,
@@ -2033,7 +2033,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E8&amp;"|"&amp;B8,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>27.780466960852944</v>
       </c>
       <c r="R8" s="5" cm="1">
         <f t="array" ref="R8">_xlfn.SWITCH(F8,"R",_xlfn.XLOOKUP(E8&amp;"|"&amp;B8,
@@ -2144,7 +2144,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E9&amp;"|"&amp;B9,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>27.780466960852944</v>
       </c>
       <c r="R9" s="5" cm="1">
         <f t="array" ref="R9">_xlfn.SWITCH(F9,"R",_xlfn.XLOOKUP(E9&amp;"|"&amp;B9,
@@ -2255,7 +2255,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E10&amp;"|"&amp;B10,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>39.615401883885887</v>
       </c>
       <c r="R10" s="5" cm="1">
         <f t="array" ref="R10">_xlfn.SWITCH(F10,"R",_xlfn.XLOOKUP(E10&amp;"|"&amp;B10,
@@ -2366,7 +2366,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E11&amp;"|"&amp;B11,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>39.615401883885887</v>
       </c>
       <c r="R11" s="5" cm="1">
         <f t="array" ref="R11">_xlfn.SWITCH(F11,"R",_xlfn.XLOOKUP(E11&amp;"|"&amp;B11,
@@ -2477,7 +2477,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E12&amp;"|"&amp;B12,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>24.598557744575295</v>
       </c>
       <c r="R12" s="5" cm="1">
         <f t="array" ref="R12">_xlfn.SWITCH(F12,"R",_xlfn.XLOOKUP(E12&amp;"|"&amp;B12,
@@ -2588,7 +2588,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E13&amp;"|"&amp;B13,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>24.598557744575295</v>
       </c>
       <c r="R13" s="5" cm="1">
         <f t="array" ref="R13">_xlfn.SWITCH(F13,"R",_xlfn.XLOOKUP(E13&amp;"|"&amp;B13,
@@ -2699,7 +2699,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E14&amp;"|"&amp;B14,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>42.797311100163533</v>
       </c>
       <c r="R14" s="5" cm="1">
         <f t="array" ref="R14">_xlfn.SWITCH(F14,"R",_xlfn.XLOOKUP(E14&amp;"|"&amp;B14,
@@ -2810,7 +2810,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E15&amp;"|"&amp;B15,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>42.797311100163533</v>
       </c>
       <c r="R15" s="5" cm="1">
         <f t="array" ref="R15">_xlfn.SWITCH(F15,"R",_xlfn.XLOOKUP(E15&amp;"|"&amp;B15,
@@ -2921,7 +2921,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E16&amp;"|"&amp;B16,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>36.361520754744703</v>
       </c>
       <c r="R16" s="5" cm="1">
         <f t="array" ref="R16">_xlfn.SWITCH(F16,"R",_xlfn.XLOOKUP(E16&amp;"|"&amp;B16,
@@ -3032,7 +3032,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E17&amp;"|"&amp;B17,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>36.361520754744703</v>
       </c>
       <c r="R17" s="5" cm="1">
         <f t="array" ref="R17">_xlfn.SWITCH(F17,"R",_xlfn.XLOOKUP(E17&amp;"|"&amp;B17,
@@ -3143,7 +3143,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E18&amp;"|"&amp;B18,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.762963010169413</v>
       </c>
       <c r="R18" s="5" cm="1">
         <f t="array" ref="R18">_xlfn.SWITCH(F18,"R",_xlfn.XLOOKUP(E18&amp;"|"&amp;B18,
@@ -3254,7 +3254,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E19&amp;"|"&amp;B19,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.762963010169413</v>
       </c>
       <c r="R19" s="5" cm="1">
         <f t="array" ref="R19">_xlfn.SWITCH(F19,"R",_xlfn.XLOOKUP(E19&amp;"|"&amp;B19,
@@ -3365,7 +3365,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E20&amp;"|"&amp;B20,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>7.4724361132235293</v>
       </c>
       <c r="R20" s="5" cm="1">
         <f t="array" ref="R20">_xlfn.SWITCH(F20,"R",_xlfn.XLOOKUP(E20&amp;"|"&amp;B20,
@@ -3476,7 +3476,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E21&amp;"|"&amp;B21,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>7.4724361132235293</v>
       </c>
       <c r="R21" s="5" cm="1">
         <f t="array" ref="R21">_xlfn.SWITCH(F21,"R",_xlfn.XLOOKUP(E21&amp;"|"&amp;B21,
@@ -3587,7 +3587,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E22&amp;"|"&amp;B22,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="R22" s="5" cm="1">
         <f t="array" ref="R22">_xlfn.SWITCH(F22,"R",_xlfn.XLOOKUP(E22&amp;"|"&amp;B22,
@@ -3698,7 +3698,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E23&amp;"|"&amp;B23,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="R23" s="5" cm="1">
         <f t="array" ref="R23">_xlfn.SWITCH(F23,"R",_xlfn.XLOOKUP(E23&amp;"|"&amp;B23,
@@ -3809,7 +3809,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E24&amp;"|"&amp;B24,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="R24" s="5" cm="1">
         <f t="array" ref="R24">_xlfn.SWITCH(F24,"R",_xlfn.XLOOKUP(E24&amp;"|"&amp;B24,
@@ -3920,7 +3920,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E25&amp;"|"&amp;B25,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="R25" s="5" cm="1">
         <f t="array" ref="R25">_xlfn.SWITCH(F25,"R",_xlfn.XLOOKUP(E25&amp;"|"&amp;B25,
@@ -4031,7 +4031,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E26&amp;"|"&amp;B26,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="R26" s="5" cm="1">
         <f t="array" ref="R26">_xlfn.SWITCH(F26,"R",_xlfn.XLOOKUP(E26&amp;"|"&amp;B26,
@@ -4142,7 +4142,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E27&amp;"|"&amp;B27,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="R27" s="5" cm="1">
         <f t="array" ref="R27">_xlfn.SWITCH(F27,"R",_xlfn.XLOOKUP(E27&amp;"|"&amp;B27,
@@ -4253,7 +4253,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E28&amp;"|"&amp;B28,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>10.690331285932942</v>
       </c>
       <c r="R28" s="5" cm="1">
         <f t="array" ref="R28">_xlfn.SWITCH(F28,"R",_xlfn.XLOOKUP(E28&amp;"|"&amp;B28,
@@ -4364,7 +4364,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E29&amp;"|"&amp;B29,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>10.690331285932942</v>
       </c>
       <c r="R29" s="5" cm="1">
         <f t="array" ref="R29">_xlfn.SWITCH(F29,"R",_xlfn.XLOOKUP(E29&amp;"|"&amp;B29,
@@ -4475,7 +4475,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E30&amp;"|"&amp;B30,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.308030847629414</v>
       </c>
       <c r="R30" s="5" cm="1">
         <f t="array" ref="R30">_xlfn.SWITCH(F30,"R",_xlfn.XLOOKUP(E30&amp;"|"&amp;B30,
@@ -4586,7 +4586,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E31&amp;"|"&amp;B31,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.308030847629414</v>
       </c>
       <c r="R31" s="5" cm="1">
         <f t="array" ref="R31">_xlfn.SWITCH(F31,"R",_xlfn.XLOOKUP(E31&amp;"|"&amp;B31,
@@ -4697,7 +4697,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E32&amp;"|"&amp;B32,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>16.01750395068353</v>
       </c>
       <c r="R32" s="5" cm="1">
         <f t="array" ref="R32">_xlfn.SWITCH(F32,"R",_xlfn.XLOOKUP(E32&amp;"|"&amp;B32,
@@ -4808,7 +4808,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E33&amp;"|"&amp;B33,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>16.01750395068353</v>
       </c>
       <c r="R33" s="5" cm="1">
         <f t="array" ref="R33">_xlfn.SWITCH(F33,"R",_xlfn.XLOOKUP(E33&amp;"|"&amp;B33,
@@ -4919,7 +4919,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E34&amp;"|"&amp;B34,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="R34" s="5" cm="1">
         <f t="array" ref="R34">_xlfn.SWITCH(F34,"R",_xlfn.XLOOKUP(E34&amp;"|"&amp;B34,
@@ -5030,7 +5030,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E35&amp;"|"&amp;B35,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="R35" s="5" cm="1">
         <f t="array" ref="R35">_xlfn.SWITCH(F35,"R",_xlfn.XLOOKUP(E35&amp;"|"&amp;B35,
@@ -5141,7 +5141,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E36&amp;"|"&amp;B36,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="R36" s="5" cm="1">
         <f t="array" ref="R36">_xlfn.SWITCH(F36,"R",_xlfn.XLOOKUP(E36&amp;"|"&amp;B36,
@@ -5252,7 +5252,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E37&amp;"|"&amp;B37,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="R37" s="5" cm="1">
         <f t="array" ref="R37">_xlfn.SWITCH(F37,"R",_xlfn.XLOOKUP(E37&amp;"|"&amp;B37,
@@ -5363,7 +5363,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E38&amp;"|"&amp;B38,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="R38" s="5" cm="1">
         <f t="array" ref="R38">_xlfn.SWITCH(F38,"R",_xlfn.XLOOKUP(E38&amp;"|"&amp;B38,
@@ -5474,7 +5474,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E39&amp;"|"&amp;B39,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="R39" s="5" cm="1">
         <f t="array" ref="R39">_xlfn.SWITCH(F39,"R",_xlfn.XLOOKUP(E39&amp;"|"&amp;B39,
@@ -5585,7 +5585,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E40&amp;"|"&amp;B40,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>12.835594734405884</v>
       </c>
       <c r="R40" s="5" cm="1">
         <f t="array" ref="R40">_xlfn.SWITCH(F40,"R",_xlfn.XLOOKUP(E40&amp;"|"&amp;B40,
@@ -5696,7 +5696,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E41&amp;"|"&amp;B41,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>12.835594734405884</v>
       </c>
       <c r="R41" s="5" cm="1">
         <f t="array" ref="R41">_xlfn.SWITCH(F41,"R",_xlfn.XLOOKUP(E41&amp;"|"&amp;B41,
@@ -5807,7 +5807,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E42&amp;"|"&amp;B42,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>21.41664852829765</v>
       </c>
       <c r="R42" s="5" cm="1">
         <f t="array" ref="R42">_xlfn.SWITCH(F42,"R",_xlfn.XLOOKUP(E42&amp;"|"&amp;B42,
@@ -5918,7 +5918,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E43&amp;"|"&amp;B43,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>21.41664852829765</v>
       </c>
       <c r="R43" s="5" cm="1">
         <f t="array" ref="R43">_xlfn.SWITCH(F43,"R",_xlfn.XLOOKUP(E43&amp;"|"&amp;B43,
@@ -6029,7 +6029,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E44&amp;"|"&amp;B44,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="R44" s="5" cm="1">
         <f t="array" ref="R44">_xlfn.SWITCH(F44,"R",_xlfn.XLOOKUP(E44&amp;"|"&amp;B44,
@@ -6140,7 +6140,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E45&amp;"|"&amp;B45,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="R45" s="5" cm="1">
         <f t="array" ref="R45">_xlfn.SWITCH(F45,"R",_xlfn.XLOOKUP(E45&amp;"|"&amp;B45,
@@ -6251,7 +6251,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E46&amp;"|"&amp;B46,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>22.489280252534119</v>
       </c>
       <c r="R46" s="5" cm="1">
         <f t="array" ref="R46">_xlfn.SWITCH(F46,"R",_xlfn.XLOOKUP(E46&amp;"|"&amp;B46,
@@ -6362,7 +6362,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E47&amp;"|"&amp;B47,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>22.489280252534119</v>
       </c>
       <c r="R47" s="5" cm="1">
         <f t="array" ref="R47">_xlfn.SWITCH(F47,"R",_xlfn.XLOOKUP(E47&amp;"|"&amp;B47,
@@ -6473,7 +6473,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E48&amp;"|"&amp;B48,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="R48" s="5" cm="1">
         <f t="array" ref="R48">_xlfn.SWITCH(F48,"R",_xlfn.XLOOKUP(E48&amp;"|"&amp;B48,
@@ -6584,7 +6584,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E49&amp;"|"&amp;B49,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="R49" s="5" cm="1">
         <f t="array" ref="R49">_xlfn.SWITCH(F49,"R",_xlfn.XLOOKUP(E49&amp;"|"&amp;B49,
@@ -6693,7 +6693,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E50&amp;"|"&amp;B50,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>26.580660712941174</v>
       </c>
       <c r="R50" s="5" cm="1">
         <f t="array" ref="R50">_xlfn.SWITCH(F50,"R",_xlfn.XLOOKUP(E50&amp;"|"&amp;B50,
@@ -6802,7 +6802,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E51&amp;"|"&amp;B51,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>26.580660712941174</v>
       </c>
       <c r="R51" s="5" cm="1">
         <f t="array" ref="R51">_xlfn.SWITCH(F51,"R",_xlfn.XLOOKUP(E51&amp;"|"&amp;B51,
@@ -6911,7 +6911,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E52&amp;"|"&amp;B52,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>19.040550361442694</v>
       </c>
       <c r="R52" s="5" cm="1">
         <f t="array" ref="R52">_xlfn.SWITCH(F52,"R",_xlfn.XLOOKUP(E52&amp;"|"&amp;B52,
@@ -7020,7 +7020,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E53&amp;"|"&amp;B53,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>19.040550361442694</v>
       </c>
       <c r="R53" s="5" cm="1">
         <f t="array" ref="R53">_xlfn.SWITCH(F53,"R",_xlfn.XLOOKUP(E53&amp;"|"&amp;B53,
@@ -7129,7 +7129,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E54&amp;"|"&amp;B54,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="R54" s="5" cm="1">
         <f t="array" ref="R54">_xlfn.SWITCH(F54,"R",_xlfn.XLOOKUP(E54&amp;"|"&amp;B54,
@@ -7238,7 +7238,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E55&amp;"|"&amp;B55,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="R55" s="5" cm="1">
         <f t="array" ref="R55">_xlfn.SWITCH(F55,"R",_xlfn.XLOOKUP(E55&amp;"|"&amp;B55,
@@ -7347,7 +7347,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E56&amp;"|"&amp;B56,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>26.722822243795633</v>
       </c>
       <c r="R56" s="5" cm="1">
         <f t="array" ref="R56">_xlfn.SWITCH(F56,"R",_xlfn.XLOOKUP(E56&amp;"|"&amp;B56,
@@ -7456,7 +7456,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E57&amp;"|"&amp;B57,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>26.722822243795633</v>
       </c>
       <c r="R57" s="5" cm="1">
         <f t="array" ref="R57">_xlfn.SWITCH(F57,"R",_xlfn.XLOOKUP(E57&amp;"|"&amp;B57,
@@ -7565,7 +7565,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E58&amp;"|"&amp;B58,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>34.921413042352938</v>
       </c>
       <c r="R58" s="5" cm="1">
         <f t="array" ref="R58">_xlfn.SWITCH(F58,"R",_xlfn.XLOOKUP(E58&amp;"|"&amp;B58,
@@ -7674,7 +7674,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E59&amp;"|"&amp;B59,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>34.921413042352938</v>
       </c>
       <c r="R59" s="5" cm="1">
         <f t="array" ref="R59">_xlfn.SWITCH(F59,"R",_xlfn.XLOOKUP(E59&amp;"|"&amp;B59,
@@ -7783,7 +7783,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E60&amp;"|"&amp;B60,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>19.890047214249883</v>
       </c>
       <c r="R60" s="5" cm="1">
         <f t="array" ref="R60">_xlfn.SWITCH(F60,"R",_xlfn.XLOOKUP(E60&amp;"|"&amp;B60,
@@ -7892,7 +7892,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E61&amp;"|"&amp;B61,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>19.890047214249883</v>
       </c>
       <c r="R61" s="5" cm="1">
         <f t="array" ref="R61">_xlfn.SWITCH(F61,"R",_xlfn.XLOOKUP(E61&amp;"|"&amp;B61,
@@ -8001,7 +8001,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E62&amp;"|"&amp;B62,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>40.408750101176473</v>
       </c>
       <c r="R62" s="5" cm="1">
         <f t="array" ref="R62">_xlfn.SWITCH(F62,"R",_xlfn.XLOOKUP(E62&amp;"|"&amp;B62,
@@ -8110,7 +8110,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E63&amp;"|"&amp;B63,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>40.408750101176473</v>
       </c>
       <c r="R63" s="5" cm="1">
         <f t="array" ref="R63">_xlfn.SWITCH(F63,"R",_xlfn.XLOOKUP(E63&amp;"|"&amp;B63,
@@ -8219,7 +8219,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E64&amp;"|"&amp;B64,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="R64" s="5" cm="1">
         <f t="array" ref="R64">_xlfn.SWITCH(F64,"R",_xlfn.XLOOKUP(E64&amp;"|"&amp;B64,
@@ -8328,7 +8328,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E65&amp;"|"&amp;B65,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="R65" s="5" cm="1">
         <f t="array" ref="R65">_xlfn.SWITCH(F65,"R",_xlfn.XLOOKUP(E65&amp;"|"&amp;B65,
@@ -8437,7 +8437,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E66&amp;"|"&amp;B66,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R66" s="5" cm="1">
         <f t="array" ref="R66">_xlfn.SWITCH(F66,"R",_xlfn.XLOOKUP(E66&amp;"|"&amp;B66,
@@ -8546,7 +8546,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E67&amp;"|"&amp;B67,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R67" s="5" cm="1">
         <f t="array" ref="R67">_xlfn.SWITCH(F67,"R",_xlfn.XLOOKUP(E67&amp;"|"&amp;B67,
@@ -8655,7 +8655,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E68&amp;"|"&amp;B68,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="R68" s="5" cm="1">
         <f t="array" ref="R68">_xlfn.SWITCH(F68,"R",_xlfn.XLOOKUP(E68&amp;"|"&amp;B68,
@@ -8764,7 +8764,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E69&amp;"|"&amp;B69,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="R69" s="5" cm="1">
         <f t="array" ref="R69">_xlfn.SWITCH(F69,"R",_xlfn.XLOOKUP(E69&amp;"|"&amp;B69,
@@ -8873,7 +8873,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E70&amp;"|"&amp;B70,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R70" s="5" cm="1">
         <f t="array" ref="R70">_xlfn.SWITCH(F70,"R",_xlfn.XLOOKUP(E70&amp;"|"&amp;B70,
@@ -8982,7 +8982,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E71&amp;"|"&amp;B71,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R71" s="5" cm="1">
         <f t="array" ref="R71">_xlfn.SWITCH(F71,"R",_xlfn.XLOOKUP(E71&amp;"|"&amp;B71,
@@ -9091,7 +9091,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E72&amp;"|"&amp;B72,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="R72" s="5" cm="1">
         <f t="array" ref="R72">_xlfn.SWITCH(F72,"R",_xlfn.XLOOKUP(E72&amp;"|"&amp;B72,
@@ -9200,7 +9200,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E73&amp;"|"&amp;B73,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="R73" s="5" cm="1">
         <f t="array" ref="R73">_xlfn.SWITCH(F73,"R",_xlfn.XLOOKUP(E73&amp;"|"&amp;B73,
@@ -9309,7 +9309,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E74&amp;"|"&amp;B74,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R74" s="5" cm="1">
         <f t="array" ref="R74">_xlfn.SWITCH(F74,"R",_xlfn.XLOOKUP(E74&amp;"|"&amp;B74,
@@ -9418,7 +9418,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E75&amp;"|"&amp;B75,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R75" s="5" cm="1">
         <f t="array" ref="R75">_xlfn.SWITCH(F75,"R",_xlfn.XLOOKUP(E75&amp;"|"&amp;B75,
@@ -9527,7 +9527,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E76&amp;"|"&amp;B76,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>12.207775331896942</v>
       </c>
       <c r="R76" s="5" cm="1">
         <f t="array" ref="R76">_xlfn.SWITCH(F76,"R",_xlfn.XLOOKUP(E76&amp;"|"&amp;B76,
@@ -9636,7 +9636,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E77&amp;"|"&amp;B77,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>12.207775331896942</v>
       </c>
       <c r="R77" s="5" cm="1">
         <f t="array" ref="R77">_xlfn.SWITCH(F77,"R",_xlfn.XLOOKUP(E77&amp;"|"&amp;B77,
@@ -9745,7 +9745,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E78&amp;"|"&amp;B78,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R78" s="5" cm="1">
         <f t="array" ref="R78">_xlfn.SWITCH(F78,"R",_xlfn.XLOOKUP(E78&amp;"|"&amp;B78,
@@ -9854,7 +9854,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E79&amp;"|"&amp;B79,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R79" s="5" cm="1">
         <f t="array" ref="R79">_xlfn.SWITCH(F79,"R",_xlfn.XLOOKUP(E79&amp;"|"&amp;B79,
@@ -9963,7 +9963,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E80&amp;"|"&amp;B80,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R80" s="5" cm="1">
         <f t="array" ref="R80">_xlfn.SWITCH(F80,"R",_xlfn.XLOOKUP(E80&amp;"|"&amp;B80,
@@ -10072,7 +10072,7 @@
         Calculate_cap_emi!$AK$14:$AK$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E81&amp;"|"&amp;B81,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AN$14:$AN$21, "Not found", 0),"Missing")</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R81" s="5" cm="1">
         <f t="array" ref="R81">_xlfn.SWITCH(F81,"R",_xlfn.XLOOKUP(E81&amp;"|"&amp;B81,
@@ -10144,7 +10144,7 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5">
         <f>LOOKUP(K82,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>3.8630603858823527</v>
       </c>
       <c r="R82" s="5">
         <f>LOOKUP(K82,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10185,7 +10185,7 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5">
         <f>LOOKUP(K83,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>4.3483140539407055</v>
       </c>
       <c r="R83" s="5">
         <f>LOOKUP(K83,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10226,7 +10226,7 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5">
         <f>LOOKUP(K84,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>4.7955232376470587</v>
       </c>
       <c r="R84" s="5">
         <f>LOOKUP(K84,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10267,7 +10267,7 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5">
         <f>LOOKUP(K85,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>5.4615681317647056</v>
       </c>
       <c r="R85" s="5">
         <f>LOOKUP(K85,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10308,7 +10308,7 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5">
         <f>LOOKUP(K86,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>6.9268668988235289</v>
       </c>
       <c r="R86" s="5">
         <f>LOOKUP(K86,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10349,7 +10349,7 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5">
         <f>LOOKUP(K87,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>8.1257477082352949</v>
       </c>
       <c r="R87" s="5">
         <f>LOOKUP(K87,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10390,7 +10390,7 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5">
         <f>LOOKUP(K88,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>4.3483140539407055</v>
       </c>
       <c r="R88" s="5">
         <f>LOOKUP(K88,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10431,7 +10431,7 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5">
         <f>LOOKUP(K89,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>5.4615681317647056</v>
       </c>
       <c r="R89" s="5">
         <f>LOOKUP(K89,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10472,7 +10472,7 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5">
         <f>LOOKUP(K90,Distribution!$C$12:$H$12,Distribution!$C$14:$H$14)</f>
-        <v>0</v>
+        <v>8.1257477082352949</v>
       </c>
       <c r="R90" s="5">
         <f>LOOKUP(K90,Installation!$C$12:$H$12,Installation!$C$14:$H$14)</f>
@@ -10514,7 +10514,7 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5">
         <f>LOOKUP(K91,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>13.961234134630589</v>
       </c>
       <c r="R91" s="5">
         <f>LOOKUP(K91,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10555,7 +10555,7 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5">
         <f>LOOKUP(K92,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>16.915506660360002</v>
       </c>
       <c r="R92" s="5">
         <f>LOOKUP(K92,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10596,7 +10596,7 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5">
         <f>LOOKUP(K93,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>18.885021677512942</v>
       </c>
       <c r="R93" s="5">
         <f>LOOKUP(K93,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10637,7 +10637,7 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5">
         <f>LOOKUP(K94,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>22.824051711818829</v>
       </c>
       <c r="R94" s="5">
         <f>LOOKUP(K94,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10678,7 +10678,7 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5">
         <f>LOOKUP(K95,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>32.015121791865887</v>
       </c>
       <c r="R95" s="5">
         <f>LOOKUP(K95,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10719,7 +10719,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5">
         <f>LOOKUP(K96,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>38.580171849042358</v>
       </c>
       <c r="R96" s="5">
         <f>LOOKUP(K96,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10760,7 +10760,7 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5">
         <f>LOOKUP(K97,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>16.915506660360002</v>
       </c>
       <c r="R97" s="5">
         <f>LOOKUP(K97,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10801,7 +10801,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5">
         <f>LOOKUP(K98,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>22.824051711818829</v>
       </c>
       <c r="R98" s="5">
         <f>LOOKUP(K98,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10842,7 +10842,7 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5">
         <f>LOOKUP(K99,Distribution!$C$15:$H$15,Distribution!$C$17:$H$17)</f>
-        <v>0</v>
+        <v>38.580171849042358</v>
       </c>
       <c r="R99" s="5">
         <f>LOOKUP(K99,Installation!$C$15:$H$15,Installation!$C$17:$H$17)</f>
@@ -10922,7 +10922,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K100,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J100,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B100&amp;"|"&amp;E100,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>77.590507024800019</v>
       </c>
       <c r="R100" s="8" cm="1">
         <f t="array" ref="R100">_xlfn.SWITCH(K100,200,_xlfn.XLOOKUP(J100,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B100&amp;"|"&amp;E100,
@@ -11014,7 +11014,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K101,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J101,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B101&amp;"|"&amp;E101,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>80.89904203104706</v>
       </c>
       <c r="R101" s="8" cm="1">
         <f t="array" ref="R101">_xlfn.SWITCH(K101,200,_xlfn.XLOOKUP(J101,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B101&amp;"|"&amp;E101,
@@ -11106,7 +11106,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K102,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J102,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B102&amp;"|"&amp;E102,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>83.104732035211782</v>
       </c>
       <c r="R102" s="8" cm="1">
         <f t="array" ref="R102">_xlfn.SWITCH(K102,200,_xlfn.XLOOKUP(J102,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B102&amp;"|"&amp;E102,
@@ -11172,7 +11172,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K103,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J103,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>2988.9923262032089</v>
+        <v>3130.2650534759359</v>
       </c>
       <c r="M103" s="8">
         <f>_xlfn.XLOOKUP(J103,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="N103" s="8" cm="1">
         <f t="array" ref="N103">_xlfn.SWITCH(K103,200,0,LOOKUP(K103,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O103" s="5" cm="1">
         <f t="array" ref="O103">_xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
@@ -11190,7 +11190,7 @@
       </c>
       <c r="P103" s="8">
         <f t="shared" si="8"/>
-        <v>2988.9923262032089</v>
+        <v>3130.2650534759359</v>
       </c>
       <c r="Q103" s="8" cm="1">
         <f t="array" ref="Q103">_xlfn.SWITCH(K103,200,_xlfn.XLOOKUP(J103,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
@@ -11198,7 +11198,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K103,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J103,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>80.641857307379695</v>
       </c>
       <c r="R103" s="8" cm="1">
         <f t="array" ref="R103">_xlfn.SWITCH(K103,200,_xlfn.XLOOKUP(J103,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
@@ -11264,7 +11264,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K104,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J104,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3062.7307379679146</v>
+        <v>3204.0034652406416</v>
       </c>
       <c r="M104" s="8">
         <f>_xlfn.XLOOKUP(J104,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="N104" s="8" cm="1">
         <f t="array" ref="N104">_xlfn.SWITCH(K104,200,0,LOOKUP(K104,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O104" s="5" cm="1">
         <f t="array" ref="O104">_xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
@@ -11282,7 +11282,7 @@
       </c>
       <c r="P104" s="8">
         <f t="shared" si="8"/>
-        <v>3062.7307379679146</v>
+        <v>3204.0034652406416</v>
       </c>
       <c r="Q104" s="8" cm="1">
         <f t="array" ref="Q104">_xlfn.SWITCH(K104,200,_xlfn.XLOOKUP(J104,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
@@ -11290,7 +11290,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K104,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J104,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>81.744702309462042</v>
       </c>
       <c r="R104" s="8" cm="1">
         <f t="array" ref="R104">_xlfn.SWITCH(K104,200,_xlfn.XLOOKUP(J104,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
@@ -11356,7 +11356,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K105,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J105,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3283.9459732620321</v>
+        <v>3425.2187005347591</v>
       </c>
       <c r="M105" s="8">
         <f>_xlfn.XLOOKUP(J105,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="N105" s="8" cm="1">
         <f t="array" ref="N105">_xlfn.SWITCH(K105,200,0,LOOKUP(K105,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O105" s="5" cm="1">
         <f t="array" ref="O105">_xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
@@ -11374,7 +11374,7 @@
       </c>
       <c r="P105" s="8">
         <f t="shared" si="8"/>
-        <v>3283.9459732620321</v>
+        <v>3425.2187005347591</v>
       </c>
       <c r="Q105" s="8" cm="1">
         <f t="array" ref="Q105">_xlfn.SWITCH(K105,200,_xlfn.XLOOKUP(J105,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
@@ -11382,7 +11382,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K105,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J105,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>85.053237315709111</v>
       </c>
       <c r="R105" s="8" cm="1">
         <f t="array" ref="R105">_xlfn.SWITCH(K105,200,_xlfn.XLOOKUP(J105,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
@@ -11448,7 +11448,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K106,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J106,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3652.6380320855615</v>
+        <v>3793.9107593582885</v>
       </c>
       <c r="M106" s="8">
         <f>_xlfn.XLOOKUP(J106,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="N106" s="8" cm="1">
         <f t="array" ref="N106">_xlfn.SWITCH(K106,200,0,LOOKUP(K106,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O106" s="5" cm="1">
         <f t="array" ref="O106">_xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
@@ -11466,7 +11466,7 @@
       </c>
       <c r="P106" s="8">
         <f t="shared" si="8"/>
-        <v>3652.6380320855615</v>
+        <v>3793.9107593582885</v>
       </c>
       <c r="Q106" s="8" cm="1">
         <f t="array" ref="Q106">_xlfn.SWITCH(K106,200,_xlfn.XLOOKUP(J106,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
@@ -11474,7 +11474,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K106,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J106,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.567462326120875</v>
       </c>
       <c r="R106" s="8" cm="1">
         <f t="array" ref="R106">_xlfn.SWITCH(K106,200,_xlfn.XLOOKUP(J106,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
@@ -11540,7 +11540,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K107,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J107,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3643.8105080213904</v>
+        <v>3976.9468716577539</v>
       </c>
       <c r="M107" s="8">
         <f>_xlfn.XLOOKUP(J107,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="N107" s="8" cm="1">
         <f t="array" ref="N107">_xlfn.SWITCH(K107,200,0,LOOKUP(K107,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O107" s="5" cm="1">
         <f t="array" ref="O107">_xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
@@ -11558,7 +11558,7 @@
       </c>
       <c r="P107" s="8">
         <f>SUM(M107:O107)</f>
-        <v>3643.8105080213904</v>
+        <v>3976.9468716577539</v>
       </c>
       <c r="Q107" s="8" cm="1">
         <f t="array" ref="Q107">_xlfn.SWITCH(K107,200,_xlfn.XLOOKUP(J107,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
@@ -11566,7 +11566,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K107,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J107,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>88.104587598288788</v>
       </c>
       <c r="R107" s="8" cm="1">
         <f t="array" ref="R107">_xlfn.SWITCH(K107,200,_xlfn.XLOOKUP(J107,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
@@ -11632,7 +11632,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K108,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J108,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3717.5489197860961</v>
+        <v>4050.6852834224601</v>
       </c>
       <c r="M108" s="8">
         <f>_xlfn.XLOOKUP(J108,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="N108" s="8" cm="1">
         <f t="array" ref="N108">_xlfn.SWITCH(K108,200,0,LOOKUP(K108,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O108" s="5" cm="1">
         <f t="array" ref="O108">_xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
@@ -11650,7 +11650,7 @@
       </c>
       <c r="P108" s="8">
         <f t="shared" si="8"/>
-        <v>3717.5489197860961</v>
+        <v>4050.6852834224601</v>
       </c>
       <c r="Q108" s="8" cm="1">
         <f t="array" ref="Q108">_xlfn.SWITCH(K108,200,_xlfn.XLOOKUP(J108,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
@@ -11658,7 +11658,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K108,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J108,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>89.207432600371135</v>
       </c>
       <c r="R108" s="8" cm="1">
         <f t="array" ref="R108">_xlfn.SWITCH(K108,200,_xlfn.XLOOKUP(J108,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
@@ -11724,7 +11724,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K109,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J109,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3938.7641550802136</v>
+        <v>4271.9005187165776</v>
       </c>
       <c r="M109" s="8">
         <f>_xlfn.XLOOKUP(J109,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="N109" s="8" cm="1">
         <f t="array" ref="N109">_xlfn.SWITCH(K109,200,0,LOOKUP(K109,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O109" s="5" cm="1">
         <f t="array" ref="O109">_xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
@@ -11742,7 +11742,7 @@
       </c>
       <c r="P109" s="8">
         <f t="shared" si="8"/>
-        <v>3938.7641550802136</v>
+        <v>4271.9005187165776</v>
       </c>
       <c r="Q109" s="8" cm="1">
         <f t="array" ref="Q109">_xlfn.SWITCH(K109,200,_xlfn.XLOOKUP(J109,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
@@ -11750,7 +11750,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K109,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J109,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.515967606618204</v>
       </c>
       <c r="R109" s="8" cm="1">
         <f t="array" ref="R109">_xlfn.SWITCH(K109,200,_xlfn.XLOOKUP(J109,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
@@ -11816,7 +11816,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K110,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J110,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4159.9793903743312</v>
+        <v>4493.1157540106951</v>
       </c>
       <c r="M110" s="8">
         <f>_xlfn.XLOOKUP(J110,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="N110" s="8" cm="1">
         <f t="array" ref="N110">_xlfn.SWITCH(K110,200,0,LOOKUP(K110,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O110" s="5" cm="1">
         <f t="array" ref="O110">_xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
@@ -11834,7 +11834,7 @@
       </c>
       <c r="P110" s="8">
         <f t="shared" si="8"/>
-        <v>4159.9793903743312</v>
+        <v>4493.1157540106951</v>
       </c>
       <c r="Q110" s="8" cm="1">
         <f t="array" ref="Q110">_xlfn.SWITCH(K110,200,_xlfn.XLOOKUP(J110,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
@@ -11842,7 +11842,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K110,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J110,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>95.824502612865246</v>
       </c>
       <c r="R110" s="8" cm="1">
         <f t="array" ref="R110">_xlfn.SWITCH(K110,200,_xlfn.XLOOKUP(J110,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
@@ -11908,7 +11908,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K111,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J111,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4307.4562139037434</v>
+        <v>4640.5925775401065</v>
       </c>
       <c r="M111" s="8">
         <f>_xlfn.XLOOKUP(J111,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="N111" s="8" cm="1">
         <f t="array" ref="N111">_xlfn.SWITCH(K111,200,0,LOOKUP(K111,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O111" s="5" cm="1">
         <f t="array" ref="O111">_xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
@@ -11926,7 +11926,7 @@
       </c>
       <c r="P111" s="8">
         <f t="shared" si="8"/>
-        <v>4307.4562139037434</v>
+        <v>4640.5925775401065</v>
       </c>
       <c r="Q111" s="8" cm="1">
         <f t="array" ref="Q111">_xlfn.SWITCH(K111,200,_xlfn.XLOOKUP(J111,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
@@ -11934,7 +11934,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K111,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J111,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>98.030192617029968</v>
       </c>
       <c r="R111" s="8" cm="1">
         <f t="array" ref="R111">_xlfn.SWITCH(K111,200,_xlfn.XLOOKUP(J111,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
@@ -12026,7 +12026,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K112,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J112,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B112&amp;"|"&amp;E112,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.012264754800015</v>
       </c>
       <c r="R112" s="8" cm="1">
         <f t="array" ref="R112">_xlfn.SWITCH(K112,200,_xlfn.XLOOKUP(J112,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B112&amp;"|"&amp;E112,
@@ -12118,7 +12118,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K113,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J113,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B113&amp;"|"&amp;E113,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.320799761047056</v>
       </c>
       <c r="R113" s="8" cm="1">
         <f t="array" ref="R113">_xlfn.SWITCH(K113,200,_xlfn.XLOOKUP(J113,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B113&amp;"|"&amp;E113,
@@ -12210,7 +12210,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K114,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J114,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B114&amp;"|"&amp;E114,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.526489765211778</v>
       </c>
       <c r="R114" s="8" cm="1">
         <f t="array" ref="R114">_xlfn.SWITCH(K114,200,_xlfn.XLOOKUP(J114,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B114&amp;"|"&amp;E114,
@@ -12276,7 +12276,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K115,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J115,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3566.4923262032089</v>
+        <v>3707.7650534759359</v>
       </c>
       <c r="M115" s="8">
         <f>_xlfn.XLOOKUP(J115,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="N115" s="8" cm="1">
         <f t="array" ref="N115">_xlfn.SWITCH(K115,200,0,LOOKUP(K115,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O115" s="5" cm="1">
         <f t="array" ref="O115">_xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
@@ -12294,7 +12294,7 @@
       </c>
       <c r="P115" s="8">
         <f>SUM(M115:O115)</f>
-        <v>3566.4923262032089</v>
+        <v>3707.7650534759359</v>
       </c>
       <c r="Q115" s="8" cm="1">
         <f t="array" ref="Q115">_xlfn.SWITCH(K115,200,_xlfn.XLOOKUP(J115,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
@@ -12302,7 +12302,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K115,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J115,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.063615037379691</v>
       </c>
       <c r="R115" s="8" cm="1">
         <f t="array" ref="R115">_xlfn.SWITCH(K115,200,_xlfn.XLOOKUP(J115,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
@@ -12368,7 +12368,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K116,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J116,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3640.2307379679146</v>
+        <v>3781.5034652406416</v>
       </c>
       <c r="M116" s="8">
         <f>_xlfn.XLOOKUP(J116,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="N116" s="8" cm="1">
         <f t="array" ref="N116">_xlfn.SWITCH(K116,200,0,LOOKUP(K116,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O116" s="5" cm="1">
         <f t="array" ref="O116">_xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
@@ -12386,7 +12386,7 @@
       </c>
       <c r="P116" s="8">
         <f t="shared" si="8"/>
-        <v>3640.2307379679146</v>
+        <v>3781.5034652406416</v>
       </c>
       <c r="Q116" s="8" cm="1">
         <f t="array" ref="Q116">_xlfn.SWITCH(K116,200,_xlfn.XLOOKUP(J116,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
@@ -12394,7 +12394,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K116,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J116,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.166460039462038</v>
       </c>
       <c r="R116" s="8" cm="1">
         <f t="array" ref="R116">_xlfn.SWITCH(K116,200,_xlfn.XLOOKUP(J116,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
@@ -12460,7 +12460,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K117,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J117,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3861.4459732620321</v>
+        <v>4002.7187005347591</v>
       </c>
       <c r="M117" s="8">
         <f>_xlfn.XLOOKUP(J117,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="N117" s="8" cm="1">
         <f t="array" ref="N117">_xlfn.SWITCH(K117,200,0,LOOKUP(K117,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O117" s="5" cm="1">
         <f t="array" ref="O117">_xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
@@ -12478,7 +12478,7 @@
       </c>
       <c r="P117" s="8">
         <f t="shared" si="8"/>
-        <v>3861.4459732620321</v>
+        <v>4002.7187005347591</v>
       </c>
       <c r="Q117" s="8" cm="1">
         <f t="array" ref="Q117">_xlfn.SWITCH(K117,200,_xlfn.XLOOKUP(J117,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
@@ -12486,7 +12486,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K117,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J117,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>94.474995045709107</v>
       </c>
       <c r="R117" s="8" cm="1">
         <f t="array" ref="R117">_xlfn.SWITCH(K117,200,_xlfn.XLOOKUP(J117,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
@@ -12552,7 +12552,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K118,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J118,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4230.1380320855615</v>
+        <v>4371.4107593582885</v>
       </c>
       <c r="M118" s="8">
         <f>_xlfn.XLOOKUP(J118,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="N118" s="8" cm="1">
         <f t="array" ref="N118">_xlfn.SWITCH(K118,200,0,LOOKUP(K118,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O118" s="5" cm="1">
         <f t="array" ref="O118">_xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
@@ -12570,7 +12570,7 @@
       </c>
       <c r="P118" s="8">
         <f t="shared" si="8"/>
-        <v>4230.1380320855615</v>
+        <v>4371.4107593582885</v>
       </c>
       <c r="Q118" s="8" cm="1">
         <f t="array" ref="Q118">_xlfn.SWITCH(K118,200,_xlfn.XLOOKUP(J118,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
@@ -12578,7 +12578,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K118,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J118,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>99.989220056120871</v>
       </c>
       <c r="R118" s="8" cm="1">
         <f t="array" ref="R118">_xlfn.SWITCH(K118,200,_xlfn.XLOOKUP(J118,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
@@ -12644,7 +12644,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K119,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J119,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4221.31050802139</v>
+        <v>4554.4468716577539</v>
       </c>
       <c r="M119" s="8">
         <f>_xlfn.XLOOKUP(J119,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="N119" s="8" cm="1">
         <f t="array" ref="N119">_xlfn.SWITCH(K119,200,0,LOOKUP(K119,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O119" s="5" cm="1">
         <f t="array" ref="O119">_xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
@@ -12662,7 +12662,7 @@
       </c>
       <c r="P119" s="8">
         <f>SUM(M119:O119)</f>
-        <v>4221.31050802139</v>
+        <v>4554.4468716577539</v>
       </c>
       <c r="Q119" s="8" cm="1">
         <f t="array" ref="Q119">_xlfn.SWITCH(K119,200,_xlfn.XLOOKUP(J119,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
@@ -12670,7 +12670,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K119,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J119,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>97.526345328288784</v>
       </c>
       <c r="R119" s="8" cm="1">
         <f t="array" ref="R119">_xlfn.SWITCH(K119,200,_xlfn.XLOOKUP(J119,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
@@ -12736,7 +12736,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K120,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J120,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4295.0489197860961</v>
+        <v>4628.1852834224601</v>
       </c>
       <c r="M120" s="8">
         <f>_xlfn.XLOOKUP(J120,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="N120" s="8" cm="1">
         <f t="array" ref="N120">_xlfn.SWITCH(K120,200,0,LOOKUP(K120,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O120" s="5" cm="1">
         <f t="array" ref="O120">_xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
@@ -12754,7 +12754,7 @@
       </c>
       <c r="P120" s="8">
         <f t="shared" si="8"/>
-        <v>4295.0489197860961</v>
+        <v>4628.1852834224601</v>
       </c>
       <c r="Q120" s="8" cm="1">
         <f t="array" ref="Q120">_xlfn.SWITCH(K120,200,_xlfn.XLOOKUP(J120,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
@@ -12762,7 +12762,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K120,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J120,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>98.629190330371131</v>
       </c>
       <c r="R120" s="8" cm="1">
         <f t="array" ref="R120">_xlfn.SWITCH(K120,200,_xlfn.XLOOKUP(J120,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
@@ -12828,7 +12828,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K121,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J121,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4516.2641550802136</v>
+        <v>4849.4005187165776</v>
       </c>
       <c r="M121" s="8">
         <f>_xlfn.XLOOKUP(J121,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="N121" s="8" cm="1">
         <f t="array" ref="N121">_xlfn.SWITCH(K121,200,0,LOOKUP(K121,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O121" s="5" cm="1">
         <f t="array" ref="O121">_xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
@@ -12846,7 +12846,7 @@
       </c>
       <c r="P121" s="8">
         <f t="shared" si="8"/>
-        <v>4516.2641550802136</v>
+        <v>4849.4005187165776</v>
       </c>
       <c r="Q121" s="8" cm="1">
         <f t="array" ref="Q121">_xlfn.SWITCH(K121,200,_xlfn.XLOOKUP(J121,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
@@ -12854,7 +12854,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K121,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J121,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>101.9377253366182</v>
       </c>
       <c r="R121" s="8" cm="1">
         <f t="array" ref="R121">_xlfn.SWITCH(K121,200,_xlfn.XLOOKUP(J121,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
@@ -12920,7 +12920,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K122,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J122,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4737.4793903743312</v>
+        <v>5070.6157540106951</v>
       </c>
       <c r="M122" s="8">
         <f>_xlfn.XLOOKUP(J122,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="N122" s="8" cm="1">
         <f t="array" ref="N122">_xlfn.SWITCH(K122,200,0,LOOKUP(K122,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O122" s="5" cm="1">
         <f t="array" ref="O122">_xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
@@ -12938,7 +12938,7 @@
       </c>
       <c r="P122" s="8">
         <f t="shared" si="8"/>
-        <v>4737.4793903743312</v>
+        <v>5070.6157540106951</v>
       </c>
       <c r="Q122" s="8" cm="1">
         <f t="array" ref="Q122">_xlfn.SWITCH(K122,200,_xlfn.XLOOKUP(J122,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
@@ -12946,7 +12946,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K122,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J122,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>105.24626034286524</v>
       </c>
       <c r="R122" s="8" cm="1">
         <f t="array" ref="R122">_xlfn.SWITCH(K122,200,_xlfn.XLOOKUP(J122,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
@@ -13012,7 +13012,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K123,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J123,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4884.9562139037434</v>
+        <v>5218.0925775401065</v>
       </c>
       <c r="M123" s="8">
         <f>_xlfn.XLOOKUP(J123,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="N123" s="8" cm="1">
         <f t="array" ref="N123">_xlfn.SWITCH(K123,200,0,LOOKUP(K123,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O123" s="5" cm="1">
         <f t="array" ref="O123">_xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
@@ -13030,7 +13030,7 @@
       </c>
       <c r="P123" s="8">
         <f t="shared" si="8"/>
-        <v>4884.9562139037434</v>
+        <v>5218.0925775401065</v>
       </c>
       <c r="Q123" s="8" cm="1">
         <f t="array" ref="Q123">_xlfn.SWITCH(K123,200,_xlfn.XLOOKUP(J123,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
@@ -13038,7 +13038,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K123,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J123,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>107.45195034702996</v>
       </c>
       <c r="R123" s="8" cm="1">
         <f t="array" ref="R123">_xlfn.SWITCH(K123,200,_xlfn.XLOOKUP(J123,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
@@ -13130,7 +13130,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K124,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J124,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B124&amp;"|"&amp;E124,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>80.505654837300014</v>
       </c>
       <c r="R124" s="8" cm="1">
         <f t="array" ref="R124">_xlfn.SWITCH(K124,200,_xlfn.XLOOKUP(J124,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B124&amp;"|"&amp;E124,
@@ -13222,7 +13222,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K125,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J125,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B125&amp;"|"&amp;E125,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>83.814189843547069</v>
       </c>
       <c r="R125" s="8" cm="1">
         <f t="array" ref="R125">_xlfn.SWITCH(K125,200,_xlfn.XLOOKUP(J125,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B125&amp;"|"&amp;E125,
@@ -13314,7 +13314,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K126,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J126,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B126&amp;"|"&amp;E126,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>86.019879847711778</v>
       </c>
       <c r="R126" s="8" cm="1">
         <f t="array" ref="R126">_xlfn.SWITCH(K126,200,_xlfn.XLOOKUP(J126,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B126&amp;"|"&amp;E126,
@@ -13380,7 +13380,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K127,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J127,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3166.1798262032089</v>
+        <v>3307.4525534759359</v>
       </c>
       <c r="M127" s="8">
         <f>_xlfn.XLOOKUP(J127,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="N127" s="8" cm="1">
         <f t="array" ref="N127">_xlfn.SWITCH(K127,200,0,LOOKUP(K127,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O127" s="5" cm="1">
         <f t="array" ref="O127">_xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
@@ -13398,7 +13398,7 @@
       </c>
       <c r="P127" s="8">
         <f t="shared" si="8"/>
-        <v>3166.1798262032089</v>
+        <v>3307.4525534759359</v>
       </c>
       <c r="Q127" s="8" cm="1">
         <f t="array" ref="Q127">_xlfn.SWITCH(K127,200,_xlfn.XLOOKUP(J127,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
@@ -13406,7 +13406,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K127,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J127,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>83.55700511987969</v>
       </c>
       <c r="R127" s="8" cm="1">
         <f t="array" ref="R127">_xlfn.SWITCH(K127,200,_xlfn.XLOOKUP(J127,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
@@ -13472,7 +13472,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K128,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J128,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3239.9182379679146</v>
+        <v>3381.1909652406416</v>
       </c>
       <c r="M128" s="8">
         <f>_xlfn.XLOOKUP(J128,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="N128" s="8" cm="1">
         <f t="array" ref="N128">_xlfn.SWITCH(K128,200,0,LOOKUP(K128,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O128" s="5" cm="1">
         <f t="array" ref="O128">_xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
@@ -13490,7 +13490,7 @@
       </c>
       <c r="P128" s="8">
         <f t="shared" si="8"/>
-        <v>3239.9182379679146</v>
+        <v>3381.1909652406416</v>
       </c>
       <c r="Q128" s="8" cm="1">
         <f t="array" ref="Q128">_xlfn.SWITCH(K128,200,_xlfn.XLOOKUP(J128,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
@@ -13498,7 +13498,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K128,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J128,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>84.659850121962052</v>
       </c>
       <c r="R128" s="8" cm="1">
         <f t="array" ref="R128">_xlfn.SWITCH(K128,200,_xlfn.XLOOKUP(J128,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
@@ -13564,7 +13564,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K129,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J129,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3461.1334732620321</v>
+        <v>3602.4062005347591</v>
       </c>
       <c r="M129" s="8">
         <f>_xlfn.XLOOKUP(J129,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="N129" s="8" cm="1">
         <f t="array" ref="N129">_xlfn.SWITCH(K129,200,0,LOOKUP(K129,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O129" s="5" cm="1">
         <f t="array" ref="O129">_xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
@@ -13582,7 +13582,7 @@
       </c>
       <c r="P129" s="8">
         <f t="shared" si="8"/>
-        <v>3461.1334732620321</v>
+        <v>3602.4062005347591</v>
       </c>
       <c r="Q129" s="8" cm="1">
         <f t="array" ref="Q129">_xlfn.SWITCH(K129,200,_xlfn.XLOOKUP(J129,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
@@ -13590,7 +13590,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K129,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J129,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.968385128209107</v>
       </c>
       <c r="R129" s="8" cm="1">
         <f t="array" ref="R129">_xlfn.SWITCH(K129,200,_xlfn.XLOOKUP(J129,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
@@ -13656,7 +13656,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K130,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J130,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3829.8255320855615</v>
+        <v>3971.0982593582885</v>
       </c>
       <c r="M130" s="8">
         <f>_xlfn.XLOOKUP(J130,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="N130" s="8" cm="1">
         <f t="array" ref="N130">_xlfn.SWITCH(K130,200,0,LOOKUP(K130,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O130" s="5" cm="1">
         <f t="array" ref="O130">_xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
@@ -13674,7 +13674,7 @@
       </c>
       <c r="P130" s="8">
         <f t="shared" si="8"/>
-        <v>3829.8255320855615</v>
+        <v>3971.0982593582885</v>
       </c>
       <c r="Q130" s="8" cm="1">
         <f t="array" ref="Q130">_xlfn.SWITCH(K130,200,_xlfn.XLOOKUP(J130,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
@@ -13682,7 +13682,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K130,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J130,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>93.482610138620871</v>
       </c>
       <c r="R130" s="8" cm="1">
         <f t="array" ref="R130">_xlfn.SWITCH(K130,200,_xlfn.XLOOKUP(J130,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
@@ -13748,7 +13748,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K131,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J131,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3820.9980080213904</v>
+        <v>4154.1343716577539</v>
       </c>
       <c r="M131" s="8">
         <f>_xlfn.XLOOKUP(J131,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="N131" s="8" cm="1">
         <f t="array" ref="N131">_xlfn.SWITCH(K131,200,0,LOOKUP(K131,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O131" s="5" cm="1">
         <f t="array" ref="O131">_xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
@@ -13766,7 +13766,7 @@
       </c>
       <c r="P131" s="8">
         <f t="shared" si="8"/>
-        <v>3820.9980080213904</v>
+        <v>4154.1343716577539</v>
       </c>
       <c r="Q131" s="8" cm="1">
         <f t="array" ref="Q131">_xlfn.SWITCH(K131,200,_xlfn.XLOOKUP(J131,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
@@ -13774,7 +13774,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K131,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J131,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.019735410788783</v>
       </c>
       <c r="R131" s="8" cm="1">
         <f t="array" ref="R131">_xlfn.SWITCH(K131,200,_xlfn.XLOOKUP(J131,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
@@ -13840,7 +13840,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K132,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J132,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3894.7364197860961</v>
+        <v>4227.8727834224601</v>
       </c>
       <c r="M132" s="8">
         <f>_xlfn.XLOOKUP(J132,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="N132" s="8" cm="1">
         <f t="array" ref="N132">_xlfn.SWITCH(K132,200,0,LOOKUP(K132,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O132" s="5" cm="1">
         <f t="array" ref="O132">_xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
@@ -13858,7 +13858,7 @@
       </c>
       <c r="P132" s="8">
         <f t="shared" si="8"/>
-        <v>3894.7364197860961</v>
+        <v>4227.8727834224601</v>
       </c>
       <c r="Q132" s="8" cm="1">
         <f t="array" ref="Q132">_xlfn.SWITCH(K132,200,_xlfn.XLOOKUP(J132,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
@@ -13866,7 +13866,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K132,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J132,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.12258041287113</v>
       </c>
       <c r="R132" s="8" cm="1">
         <f t="array" ref="R132">_xlfn.SWITCH(K132,200,_xlfn.XLOOKUP(J132,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
@@ -13932,7 +13932,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K133,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J133,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4115.9516550802136</v>
+        <v>4449.0880187165776</v>
       </c>
       <c r="M133" s="8">
         <f>_xlfn.XLOOKUP(J133,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="N133" s="8" cm="1">
         <f t="array" ref="N133">_xlfn.SWITCH(K133,200,0,LOOKUP(K133,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O133" s="5" cm="1">
         <f t="array" ref="O133">_xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
@@ -13950,7 +13950,7 @@
       </c>
       <c r="P133" s="8">
         <f t="shared" si="8"/>
-        <v>4115.9516550802136</v>
+        <v>4449.0880187165776</v>
       </c>
       <c r="Q133" s="8" cm="1">
         <f t="array" ref="Q133">_xlfn.SWITCH(K133,200,_xlfn.XLOOKUP(J133,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
@@ -13958,7 +13958,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K133,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J133,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>95.4311154191182</v>
       </c>
       <c r="R133" s="8" cm="1">
         <f t="array" ref="R133">_xlfn.SWITCH(K133,200,_xlfn.XLOOKUP(J133,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
@@ -14024,7 +14024,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K134,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J134,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4337.1668903743312</v>
+        <v>4670.3032540106951</v>
       </c>
       <c r="M134" s="8">
         <f>_xlfn.XLOOKUP(J134,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="N134" s="8" cm="1">
         <f t="array" ref="N134">_xlfn.SWITCH(K134,200,0,LOOKUP(K134,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O134" s="5" cm="1">
         <f t="array" ref="O134">_xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
@@ -14042,7 +14042,7 @@
       </c>
       <c r="P134" s="8">
         <f t="shared" si="8"/>
-        <v>4337.1668903743312</v>
+        <v>4670.3032540106951</v>
       </c>
       <c r="Q134" s="8" cm="1">
         <f t="array" ref="Q134">_xlfn.SWITCH(K134,200,_xlfn.XLOOKUP(J134,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
@@ -14050,7 +14050,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K134,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J134,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>98.739650425365241</v>
       </c>
       <c r="R134" s="8" cm="1">
         <f t="array" ref="R134">_xlfn.SWITCH(K134,200,_xlfn.XLOOKUP(J134,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
@@ -14116,7 +14116,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K135,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J135,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4484.6437139037434</v>
+        <v>4817.7800775401065</v>
       </c>
       <c r="M135" s="8">
         <f>_xlfn.XLOOKUP(J135,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="N135" s="8" cm="1">
         <f t="array" ref="N135">_xlfn.SWITCH(K135,200,0,LOOKUP(K135,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O135" s="5" cm="1">
         <f t="array" ref="O135">_xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
@@ -14134,7 +14134,7 @@
       </c>
       <c r="P135" s="8">
         <f t="shared" si="8"/>
-        <v>4484.6437139037434</v>
+        <v>4817.7800775401065</v>
       </c>
       <c r="Q135" s="8" cm="1">
         <f t="array" ref="Q135">_xlfn.SWITCH(K135,200,_xlfn.XLOOKUP(J135,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
@@ -14142,7 +14142,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K135,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J135,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>100.94534042952996</v>
       </c>
       <c r="R135" s="8" cm="1">
         <f t="array" ref="R135">_xlfn.SWITCH(K135,200,_xlfn.XLOOKUP(J135,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
@@ -14234,7 +14234,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K136,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J136,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B136&amp;"|"&amp;E136,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>88.644747529800014</v>
       </c>
       <c r="R136" s="8" cm="1">
         <f t="array" ref="R136">_xlfn.SWITCH(K136,200,_xlfn.XLOOKUP(J136,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B136&amp;"|"&amp;E136,
@@ -14326,7 +14326,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K137,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J137,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B137&amp;"|"&amp;E137,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.953282536047055</v>
       </c>
       <c r="R137" s="8" cm="1">
         <f t="array" ref="R137">_xlfn.SWITCH(K137,200,_xlfn.XLOOKUP(J137,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B137&amp;"|"&amp;E137,
@@ -14418,7 +14418,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K138,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J138,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B138&amp;"|"&amp;E138,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>94.158972540211778</v>
       </c>
       <c r="R138" s="8" cm="1">
         <f t="array" ref="R138">_xlfn.SWITCH(K138,200,_xlfn.XLOOKUP(J138,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B138&amp;"|"&amp;E138,
@@ -14484,7 +14484,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K139,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J139,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3684.6173262032089</v>
+        <v>3825.8900534759359</v>
       </c>
       <c r="M139" s="8">
         <f>_xlfn.XLOOKUP(J139,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14492,7 +14492,7 @@
       </c>
       <c r="N139" s="8" cm="1">
         <f t="array" ref="N139">_xlfn.SWITCH(K139,200,0,LOOKUP(K139,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O139" s="5" cm="1">
         <f t="array" ref="O139">_xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
@@ -14502,7 +14502,7 @@
       </c>
       <c r="P139" s="8">
         <f t="shared" si="8"/>
-        <v>3684.6173262032089</v>
+        <v>3825.8900534759359</v>
       </c>
       <c r="Q139" s="8" cm="1">
         <f t="array" ref="Q139">_xlfn.SWITCH(K139,200,_xlfn.XLOOKUP(J139,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
@@ -14510,7 +14510,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K139,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J139,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.696097812379691</v>
       </c>
       <c r="R139" s="8" cm="1">
         <f t="array" ref="R139">_xlfn.SWITCH(K139,200,_xlfn.XLOOKUP(J139,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
@@ -14576,7 +14576,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K140,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J140,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3758.3557379679146</v>
+        <v>3899.6284652406416</v>
       </c>
       <c r="M140" s="8">
         <f>_xlfn.XLOOKUP(J140,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="N140" s="8" cm="1">
         <f t="array" ref="N140">_xlfn.SWITCH(K140,200,0,LOOKUP(K140,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O140" s="5" cm="1">
         <f t="array" ref="O140">_xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
@@ -14594,7 +14594,7 @@
       </c>
       <c r="P140" s="8">
         <f t="shared" si="8"/>
-        <v>3758.3557379679146</v>
+        <v>3899.6284652406416</v>
       </c>
       <c r="Q140" s="8" cm="1">
         <f t="array" ref="Q140">_xlfn.SWITCH(K140,200,_xlfn.XLOOKUP(J140,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
@@ -14602,7 +14602,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K140,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J140,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.798942814462038</v>
       </c>
       <c r="R140" s="8" cm="1">
         <f t="array" ref="R140">_xlfn.SWITCH(K140,200,_xlfn.XLOOKUP(J140,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
@@ -14668,7 +14668,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K141,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J141,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3979.5709732620321</v>
+        <v>4120.8437005347587</v>
       </c>
       <c r="M141" s="8">
         <f>_xlfn.XLOOKUP(J141,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="N141" s="8" cm="1">
         <f t="array" ref="N141">_xlfn.SWITCH(K141,200,0,LOOKUP(K141,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O141" s="5" cm="1">
         <f t="array" ref="O141">_xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
@@ -14686,7 +14686,7 @@
       </c>
       <c r="P141" s="8">
         <f t="shared" si="8"/>
-        <v>3979.5709732620321</v>
+        <v>4120.8437005347587</v>
       </c>
       <c r="Q141" s="8" cm="1">
         <f t="array" ref="Q141">_xlfn.SWITCH(K141,200,_xlfn.XLOOKUP(J141,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
@@ -14694,7 +14694,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K141,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J141,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>96.107477820709107</v>
       </c>
       <c r="R141" s="8" cm="1">
         <f t="array" ref="R141">_xlfn.SWITCH(K141,200,_xlfn.XLOOKUP(J141,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
@@ -14760,7 +14760,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K142,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J142,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4348.2630320855615</v>
+        <v>4489.5357593582885</v>
       </c>
       <c r="M142" s="8">
         <f>_xlfn.XLOOKUP(J142,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="N142" s="8" cm="1">
         <f t="array" ref="N142">_xlfn.SWITCH(K142,200,0,LOOKUP(K142,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O142" s="5" cm="1">
         <f t="array" ref="O142">_xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
@@ -14778,7 +14778,7 @@
       </c>
       <c r="P142" s="8">
         <f t="shared" si="8"/>
-        <v>4348.2630320855615</v>
+        <v>4489.5357593582885</v>
       </c>
       <c r="Q142" s="8" cm="1">
         <f t="array" ref="Q142">_xlfn.SWITCH(K142,200,_xlfn.XLOOKUP(J142,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
@@ -14786,7 +14786,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K142,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J142,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>101.62170283112087</v>
       </c>
       <c r="R142" s="8" cm="1">
         <f t="array" ref="R142">_xlfn.SWITCH(K142,200,_xlfn.XLOOKUP(J142,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
@@ -14852,7 +14852,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K143,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J143,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4339.43550802139</v>
+        <v>4672.5718716577539</v>
       </c>
       <c r="M143" s="8">
         <f>_xlfn.XLOOKUP(J143,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="N143" s="8" cm="1">
         <f t="array" ref="N143">_xlfn.SWITCH(K143,200,0,LOOKUP(K143,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O143" s="5" cm="1">
         <f t="array" ref="O143">_xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
@@ -14870,7 +14870,7 @@
       </c>
       <c r="P143" s="8">
         <f t="shared" si="8"/>
-        <v>4339.43550802139</v>
+        <v>4672.5718716577539</v>
       </c>
       <c r="Q143" s="8" cm="1">
         <f t="array" ref="Q143">_xlfn.SWITCH(K143,200,_xlfn.XLOOKUP(J143,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
@@ -14878,7 +14878,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K143,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J143,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>99.158828103288783</v>
       </c>
       <c r="R143" s="8" cm="1">
         <f t="array" ref="R143">_xlfn.SWITCH(K143,200,_xlfn.XLOOKUP(J143,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
@@ -14944,7 +14944,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K144,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J144,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4413.1739197860961</v>
+        <v>4746.3102834224601</v>
       </c>
       <c r="M144" s="8">
         <f>_xlfn.XLOOKUP(J144,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="N144" s="8" cm="1">
         <f t="array" ref="N144">_xlfn.SWITCH(K144,200,0,LOOKUP(K144,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O144" s="5" cm="1">
         <f t="array" ref="O144">_xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
@@ -14962,7 +14962,7 @@
       </c>
       <c r="P144" s="8">
         <f t="shared" si="8"/>
-        <v>4413.1739197860961</v>
+        <v>4746.3102834224601</v>
       </c>
       <c r="Q144" s="8" cm="1">
         <f t="array" ref="Q144">_xlfn.SWITCH(K144,200,_xlfn.XLOOKUP(J144,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
@@ -14970,7 +14970,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K144,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J144,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>100.26167310537113</v>
       </c>
       <c r="R144" s="8" cm="1">
         <f t="array" ref="R144">_xlfn.SWITCH(K144,200,_xlfn.XLOOKUP(J144,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
@@ -15036,7 +15036,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K145,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J145,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4634.3891550802136</v>
+        <v>4967.5255187165776</v>
       </c>
       <c r="M145" s="8">
         <f>_xlfn.XLOOKUP(J145,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="N145" s="8" cm="1">
         <f t="array" ref="N145">_xlfn.SWITCH(K145,200,0,LOOKUP(K145,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O145" s="5" cm="1">
         <f t="array" ref="O145">_xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
@@ -15054,7 +15054,7 @@
       </c>
       <c r="P145" s="8">
         <f t="shared" si="8"/>
-        <v>4634.3891550802136</v>
+        <v>4967.5255187165776</v>
       </c>
       <c r="Q145" s="8" cm="1">
         <f t="array" ref="Q145">_xlfn.SWITCH(K145,200,_xlfn.XLOOKUP(J145,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
@@ -15062,7 +15062,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K145,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J145,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>103.5702081116182</v>
       </c>
       <c r="R145" s="8" cm="1">
         <f t="array" ref="R145">_xlfn.SWITCH(K145,200,_xlfn.XLOOKUP(J145,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
@@ -15128,7 +15128,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K146,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J146,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4855.6043903743312</v>
+        <v>5188.7407540106951</v>
       </c>
       <c r="M146" s="8">
         <f>_xlfn.XLOOKUP(J146,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="N146" s="8" cm="1">
         <f t="array" ref="N146">_xlfn.SWITCH(K146,200,0,LOOKUP(K146,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O146" s="5" cm="1">
         <f t="array" ref="O146">_xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
@@ -15146,7 +15146,7 @@
       </c>
       <c r="P146" s="8">
         <f t="shared" si="8"/>
-        <v>4855.6043903743312</v>
+        <v>5188.7407540106951</v>
       </c>
       <c r="Q146" s="8" cm="1">
         <f t="array" ref="Q146">_xlfn.SWITCH(K146,200,_xlfn.XLOOKUP(J146,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
@@ -15154,7 +15154,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K146,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J146,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>106.87874311786524</v>
       </c>
       <c r="R146" s="8" cm="1">
         <f t="array" ref="R146">_xlfn.SWITCH(K146,200,_xlfn.XLOOKUP(J146,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
@@ -15220,7 +15220,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K147,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J147,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>5003.0812139037434</v>
+        <v>5336.2175775401065</v>
       </c>
       <c r="M147" s="8">
         <f>_xlfn.XLOOKUP(J147,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="N147" s="8" cm="1">
         <f t="array" ref="N147">_xlfn.SWITCH(K147,200,0,LOOKUP(K147,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O147" s="5" cm="1">
         <f t="array" ref="O147">_xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
@@ -15238,7 +15238,7 @@
       </c>
       <c r="P147" s="8">
         <f t="shared" si="8"/>
-        <v>5003.0812139037434</v>
+        <v>5336.2175775401065</v>
       </c>
       <c r="Q147" s="8" cm="1">
         <f t="array" ref="Q147">_xlfn.SWITCH(K147,200,_xlfn.XLOOKUP(J147,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
@@ -15246,7 +15246,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K147,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J147,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>109.08443312202996</v>
       </c>
       <c r="R147" s="8" cm="1">
         <f t="array" ref="R147">_xlfn.SWITCH(K147,200,_xlfn.XLOOKUP(J147,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
@@ -15338,7 +15338,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K148,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J148,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B148&amp;"|"&amp;E148,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>76.890871549800011</v>
       </c>
       <c r="R148" s="8" cm="1">
         <f t="array" ref="R148">_xlfn.SWITCH(K148,200,_xlfn.XLOOKUP(J148,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B148&amp;"|"&amp;E148,
@@ -15430,7 +15430,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K149,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J149,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B149&amp;"|"&amp;E149,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>80.199406556047052</v>
       </c>
       <c r="R149" s="8" cm="1">
         <f t="array" ref="R149">_xlfn.SWITCH(K149,200,_xlfn.XLOOKUP(J149,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B149&amp;"|"&amp;E149,
@@ -15522,7 +15522,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K150,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J150,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B150&amp;"|"&amp;E150,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>82.405096560211774</v>
       </c>
       <c r="R150" s="8" cm="1">
         <f t="array" ref="R150">_xlfn.SWITCH(K150,200,_xlfn.XLOOKUP(J150,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B150&amp;"|"&amp;E150,
@@ -15588,7 +15588,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K151,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J151,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>2949.6173262032089</v>
+        <v>3090.8900534759359</v>
       </c>
       <c r="M151" s="8">
         <f>LOOKUP(J151,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="N151" s="8" cm="1">
         <f t="array" ref="N151">_xlfn.SWITCH(K151,200,0,LOOKUP(K151,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O151" s="5" cm="1">
         <f t="array" ref="O151">_xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
@@ -15606,7 +15606,7 @@
       </c>
       <c r="P151" s="8">
         <f t="shared" si="12"/>
-        <v>2949.6173262032089</v>
+        <v>3090.8900534759359</v>
       </c>
       <c r="Q151" s="8" cm="1">
         <f t="array" ref="Q151">_xlfn.SWITCH(K151,200,_xlfn.XLOOKUP(J151,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
@@ -15614,7 +15614,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K151,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J151,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>79.942221832379687</v>
       </c>
       <c r="R151" s="8" cm="1">
         <f t="array" ref="R151">_xlfn.SWITCH(K151,200,_xlfn.XLOOKUP(J151,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
@@ -15680,7 +15680,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K152,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J152,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3023.3557379679146</v>
+        <v>3164.6284652406416</v>
       </c>
       <c r="M152" s="8">
         <f>LOOKUP(J152,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="N152" s="8" cm="1">
         <f t="array" ref="N152">_xlfn.SWITCH(K152,200,0,LOOKUP(K152,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O152" s="5" cm="1">
         <f t="array" ref="O152">_xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
@@ -15698,7 +15698,7 @@
       </c>
       <c r="P152" s="8">
         <f t="shared" si="12"/>
-        <v>3023.3557379679146</v>
+        <v>3164.6284652406416</v>
       </c>
       <c r="Q152" s="8" cm="1">
         <f t="array" ref="Q152">_xlfn.SWITCH(K152,200,_xlfn.XLOOKUP(J152,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
@@ -15706,7 +15706,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K152,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J152,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>81.045066834462034</v>
       </c>
       <c r="R152" s="8" cm="1">
         <f t="array" ref="R152">_xlfn.SWITCH(K152,200,_xlfn.XLOOKUP(J152,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
@@ -15772,7 +15772,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K153,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J153,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3244.5709732620321</v>
+        <v>3385.8437005347591</v>
       </c>
       <c r="M153" s="8">
         <f>LOOKUP(J153,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="N153" s="8" cm="1">
         <f t="array" ref="N153">_xlfn.SWITCH(K153,200,0,LOOKUP(K153,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O153" s="5" cm="1">
         <f t="array" ref="O153">_xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
@@ -15790,7 +15790,7 @@
       </c>
       <c r="P153" s="8">
         <f t="shared" si="12"/>
-        <v>3244.5709732620321</v>
+        <v>3385.8437005347591</v>
       </c>
       <c r="Q153" s="8" cm="1">
         <f t="array" ref="Q153">_xlfn.SWITCH(K153,200,_xlfn.XLOOKUP(J153,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
@@ -15798,7 +15798,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K153,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J153,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>84.353601840709103</v>
       </c>
       <c r="R153" s="8" cm="1">
         <f t="array" ref="R153">_xlfn.SWITCH(K153,200,_xlfn.XLOOKUP(J153,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
@@ -15864,7 +15864,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K154,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J154,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3613.2630320855615</v>
+        <v>3754.5357593582885</v>
       </c>
       <c r="M154" s="8">
         <f>LOOKUP(J154,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="N154" s="8" cm="1">
         <f t="array" ref="N154">_xlfn.SWITCH(K154,200,0,LOOKUP(K154,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O154" s="5" cm="1">
         <f t="array" ref="O154">_xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
@@ -15882,7 +15882,7 @@
       </c>
       <c r="P154" s="8">
         <f t="shared" si="12"/>
-        <v>3613.2630320855615</v>
+        <v>3754.5357593582885</v>
       </c>
       <c r="Q154" s="8" cm="1">
         <f t="array" ref="Q154">_xlfn.SWITCH(K154,200,_xlfn.XLOOKUP(J154,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
@@ -15890,7 +15890,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K154,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J154,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>89.867826851120867</v>
       </c>
       <c r="R154" s="8" cm="1">
         <f t="array" ref="R154">_xlfn.SWITCH(K154,200,_xlfn.XLOOKUP(J154,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
@@ -15956,7 +15956,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K155,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J155,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3604.4355080213904</v>
+        <v>3937.5718716577539</v>
       </c>
       <c r="M155" s="8">
         <f>LOOKUP(J155,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -15964,7 +15964,7 @@
       </c>
       <c r="N155" s="8" cm="1">
         <f t="array" ref="N155">_xlfn.SWITCH(K155,200,0,LOOKUP(K155,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O155" s="5" cm="1">
         <f t="array" ref="O155">_xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
@@ -15974,7 +15974,7 @@
       </c>
       <c r="P155" s="8">
         <f t="shared" si="12"/>
-        <v>3604.4355080213904</v>
+        <v>3937.5718716577539</v>
       </c>
       <c r="Q155" s="8" cm="1">
         <f t="array" ref="Q155">_xlfn.SWITCH(K155,200,_xlfn.XLOOKUP(J155,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
@@ -15982,7 +15982,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K155,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J155,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.40495212328878</v>
       </c>
       <c r="R155" s="8" cm="1">
         <f t="array" ref="R155">_xlfn.SWITCH(K155,200,_xlfn.XLOOKUP(J155,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
@@ -16048,7 +16048,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K156,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J156,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3678.1739197860961</v>
+        <v>4011.3102834224601</v>
       </c>
       <c r="M156" s="8">
         <f>LOOKUP(J156,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16056,7 +16056,7 @@
       </c>
       <c r="N156" s="8" cm="1">
         <f t="array" ref="N156">_xlfn.SWITCH(K156,200,0,LOOKUP(K156,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O156" s="5" cm="1">
         <f t="array" ref="O156">_xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
@@ -16066,7 +16066,7 @@
       </c>
       <c r="P156" s="8">
         <f t="shared" si="12"/>
-        <v>3678.1739197860961</v>
+        <v>4011.3102834224601</v>
       </c>
       <c r="Q156" s="8" cm="1">
         <f t="array" ref="Q156">_xlfn.SWITCH(K156,200,_xlfn.XLOOKUP(J156,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
@@ -16074,7 +16074,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K156,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J156,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>88.507797125371127</v>
       </c>
       <c r="R156" s="8" cm="1">
         <f t="array" ref="R156">_xlfn.SWITCH(K156,200,_xlfn.XLOOKUP(J156,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
@@ -16140,7 +16140,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K157,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J157,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3899.3891550802136</v>
+        <v>4232.5255187165776</v>
       </c>
       <c r="M157" s="8">
         <f>LOOKUP(J157,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16148,7 +16148,7 @@
       </c>
       <c r="N157" s="8" cm="1">
         <f t="array" ref="N157">_xlfn.SWITCH(K157,200,0,LOOKUP(K157,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O157" s="5" cm="1">
         <f t="array" ref="O157">_xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
@@ -16158,7 +16158,7 @@
       </c>
       <c r="P157" s="8">
         <f t="shared" si="12"/>
-        <v>3899.3891550802136</v>
+        <v>4232.5255187165776</v>
       </c>
       <c r="Q157" s="8" cm="1">
         <f t="array" ref="Q157">_xlfn.SWITCH(K157,200,_xlfn.XLOOKUP(J157,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
@@ -16166,7 +16166,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K157,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J157,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.816332131618196</v>
       </c>
       <c r="R157" s="8" cm="1">
         <f t="array" ref="R157">_xlfn.SWITCH(K157,200,_xlfn.XLOOKUP(J157,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
@@ -16232,7 +16232,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K158,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J158,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4120.6043903743312</v>
+        <v>4453.7407540106951</v>
       </c>
       <c r="M158" s="8">
         <f>LOOKUP(J158,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="N158" s="8" cm="1">
         <f t="array" ref="N158">_xlfn.SWITCH(K158,200,0,LOOKUP(K158,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O158" s="5" cm="1">
         <f t="array" ref="O158">_xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
@@ -16250,7 +16250,7 @@
       </c>
       <c r="P158" s="8">
         <f t="shared" si="12"/>
-        <v>4120.6043903743312</v>
+        <v>4453.7407540106951</v>
       </c>
       <c r="Q158" s="8" cm="1">
         <f t="array" ref="Q158">_xlfn.SWITCH(K158,200,_xlfn.XLOOKUP(J158,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
@@ -16258,7 +16258,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K158,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J158,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>95.124867137865238</v>
       </c>
       <c r="R158" s="8" cm="1">
         <f t="array" ref="R158">_xlfn.SWITCH(K158,200,_xlfn.XLOOKUP(J158,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
@@ -16324,7 +16324,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K159,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J159,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4268.0812139037434</v>
+        <v>4601.2175775401065</v>
       </c>
       <c r="M159" s="8">
         <f>LOOKUP(J159,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="N159" s="8" cm="1">
         <f t="array" ref="N159">_xlfn.SWITCH(K159,200,0,LOOKUP(K159,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O159" s="5" cm="1">
         <f t="array" ref="O159">_xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
@@ -16342,7 +16342,7 @@
       </c>
       <c r="P159" s="8">
         <f t="shared" si="12"/>
-        <v>4268.0812139037434</v>
+        <v>4601.2175775401065</v>
       </c>
       <c r="Q159" s="8" cm="1">
         <f t="array" ref="Q159">_xlfn.SWITCH(K159,200,_xlfn.XLOOKUP(J159,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
@@ -16350,7 +16350,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K159,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J159,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>97.33055714202996</v>
       </c>
       <c r="R159" s="8" cm="1">
         <f t="array" ref="R159">_xlfn.SWITCH(K159,200,_xlfn.XLOOKUP(J159,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
@@ -16442,7 +16442,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K160,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J160,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B160&amp;"|"&amp;E160,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>84.913358329800019</v>
       </c>
       <c r="R160" s="8" cm="1">
         <f t="array" ref="R160">_xlfn.SWITCH(K160,200,_xlfn.XLOOKUP(J160,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B160&amp;"|"&amp;E160,
@@ -16534,7 +16534,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K161,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J161,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B161&amp;"|"&amp;E161,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>88.22189333604706</v>
       </c>
       <c r="R161" s="8" cm="1">
         <f t="array" ref="R161">_xlfn.SWITCH(K161,200,_xlfn.XLOOKUP(J161,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B161&amp;"|"&amp;E161,
@@ -16626,7 +16626,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K162,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J162,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B162&amp;"|"&amp;E162,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.427583340211783</v>
       </c>
       <c r="R162" s="8" cm="1">
         <f t="array" ref="R162">_xlfn.SWITCH(K162,200,_xlfn.XLOOKUP(J162,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B162&amp;"|"&amp;E162,
@@ -16692,7 +16692,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K163,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J163,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3428.6798262032089</v>
+        <v>3569.9525534759359</v>
       </c>
       <c r="M163" s="8">
         <f>LOOKUP(J163,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="N163" s="8" cm="1">
         <f t="array" ref="N163">_xlfn.SWITCH(K163,200,0,LOOKUP(K163,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O163" s="5" cm="1">
         <f t="array" ref="O163">_xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
@@ -16710,7 +16710,7 @@
       </c>
       <c r="P163" s="8">
         <f t="shared" si="12"/>
-        <v>3428.6798262032089</v>
+        <v>3569.9525534759359</v>
       </c>
       <c r="Q163" s="8" cm="1">
         <f t="array" ref="Q163">_xlfn.SWITCH(K163,200,_xlfn.XLOOKUP(J163,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
@@ -16718,7 +16718,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K163,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J163,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.964708612379695</v>
       </c>
       <c r="R163" s="8" cm="1">
         <f t="array" ref="R163">_xlfn.SWITCH(K163,200,_xlfn.XLOOKUP(J163,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
@@ -16784,7 +16784,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K164,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J164,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3502.4182379679146</v>
+        <v>3643.6909652406416</v>
       </c>
       <c r="M164" s="8">
         <f>LOOKUP(J164,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="N164" s="8" cm="1">
         <f t="array" ref="N164">_xlfn.SWITCH(K164,200,0,LOOKUP(K164,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O164" s="5" cm="1">
         <f t="array" ref="O164">_xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
@@ -16802,7 +16802,7 @@
       </c>
       <c r="P164" s="8">
         <f t="shared" si="12"/>
-        <v>3502.4182379679146</v>
+        <v>3643.6909652406416</v>
       </c>
       <c r="Q164" s="8" cm="1">
         <f t="array" ref="Q164">_xlfn.SWITCH(K164,200,_xlfn.XLOOKUP(J164,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
@@ -16810,7 +16810,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K164,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J164,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>89.067553614462042</v>
       </c>
       <c r="R164" s="8" cm="1">
         <f t="array" ref="R164">_xlfn.SWITCH(K164,200,_xlfn.XLOOKUP(J164,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
@@ -16876,7 +16876,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K165,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J165,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3723.6334732620321</v>
+        <v>3864.9062005347591</v>
       </c>
       <c r="M165" s="8">
         <f>LOOKUP(J165,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="N165" s="8" cm="1">
         <f t="array" ref="N165">_xlfn.SWITCH(K165,200,0,LOOKUP(K165,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O165" s="5" cm="1">
         <f t="array" ref="O165">_xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
@@ -16894,7 +16894,7 @@
       </c>
       <c r="P165" s="8">
         <f t="shared" si="12"/>
-        <v>3723.6334732620321</v>
+        <v>3864.9062005347591</v>
       </c>
       <c r="Q165" s="8" cm="1">
         <f t="array" ref="Q165">_xlfn.SWITCH(K165,200,_xlfn.XLOOKUP(J165,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
@@ -16902,7 +16902,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K165,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J165,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.376088620709112</v>
       </c>
       <c r="R165" s="8" cm="1">
         <f t="array" ref="R165">_xlfn.SWITCH(K165,200,_xlfn.XLOOKUP(J165,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
@@ -16968,7 +16968,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K166,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J166,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4092.3255320855615</v>
+        <v>4233.5982593582885</v>
       </c>
       <c r="M166" s="8">
         <f>LOOKUP(J166,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="N166" s="8" cm="1">
         <f t="array" ref="N166">_xlfn.SWITCH(K166,200,0,LOOKUP(K166,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O166" s="5" cm="1">
         <f t="array" ref="O166">_xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
@@ -16986,7 +16986,7 @@
       </c>
       <c r="P166" s="8">
         <f t="shared" si="12"/>
-        <v>4092.3255320855615</v>
+        <v>4233.5982593582885</v>
       </c>
       <c r="Q166" s="8" cm="1">
         <f t="array" ref="Q166">_xlfn.SWITCH(K166,200,_xlfn.XLOOKUP(J166,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
@@ -16994,7 +16994,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K166,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J166,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>97.890313631120875</v>
       </c>
       <c r="R166" s="8" cm="1">
         <f t="array" ref="R166">_xlfn.SWITCH(K166,200,_xlfn.XLOOKUP(J166,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
@@ -17060,7 +17060,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K167,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J167,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4083.4980080213904</v>
+        <v>4416.6343716577539</v>
       </c>
       <c r="M167" s="8">
         <f>LOOKUP(J167,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="N167" s="8" cm="1">
         <f t="array" ref="N167">_xlfn.SWITCH(K167,200,0,LOOKUP(K167,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O167" s="5" cm="1">
         <f t="array" ref="O167">_xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
@@ -17078,7 +17078,7 @@
       </c>
       <c r="P167" s="8">
         <f t="shared" si="12"/>
-        <v>4083.4980080213904</v>
+        <v>4416.6343716577539</v>
       </c>
       <c r="Q167" s="8" cm="1">
         <f t="array" ref="Q167">_xlfn.SWITCH(K167,200,_xlfn.XLOOKUP(J167,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
@@ -17086,7 +17086,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K167,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J167,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>95.427438903288788</v>
       </c>
       <c r="R167" s="8" cm="1">
         <f t="array" ref="R167">_xlfn.SWITCH(K167,200,_xlfn.XLOOKUP(J167,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
@@ -17152,7 +17152,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K168,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J168,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4157.2364197860961</v>
+        <v>4490.3727834224601</v>
       </c>
       <c r="M168" s="8">
         <f>LOOKUP(J168,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="N168" s="8" cm="1">
         <f t="array" ref="N168">_xlfn.SWITCH(K168,200,0,LOOKUP(K168,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O168" s="5" cm="1">
         <f t="array" ref="O168">_xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
@@ -17170,7 +17170,7 @@
       </c>
       <c r="P168" s="8">
         <f t="shared" si="12"/>
-        <v>4157.2364197860961</v>
+        <v>4490.3727834224601</v>
       </c>
       <c r="Q168" s="8" cm="1">
         <f t="array" ref="Q168">_xlfn.SWITCH(K168,200,_xlfn.XLOOKUP(J168,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
@@ -17178,7 +17178,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K168,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J168,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>96.530283905371135</v>
       </c>
       <c r="R168" s="8" cm="1">
         <f t="array" ref="R168">_xlfn.SWITCH(K168,200,_xlfn.XLOOKUP(J168,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
@@ -17244,7 +17244,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K169,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J169,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4378.4516550802136</v>
+        <v>4711.5880187165776</v>
       </c>
       <c r="M169" s="8">
         <f>LOOKUP(J169,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="N169" s="8" cm="1">
         <f t="array" ref="N169">_xlfn.SWITCH(K169,200,0,LOOKUP(K169,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O169" s="5" cm="1">
         <f t="array" ref="O169">_xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
@@ -17262,7 +17262,7 @@
       </c>
       <c r="P169" s="8">
         <f t="shared" si="12"/>
-        <v>4378.4516550802136</v>
+        <v>4711.5880187165776</v>
       </c>
       <c r="Q169" s="8" cm="1">
         <f t="array" ref="Q169">_xlfn.SWITCH(K169,200,_xlfn.XLOOKUP(J169,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
@@ -17270,7 +17270,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K169,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J169,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>99.838818911618205</v>
       </c>
       <c r="R169" s="8" cm="1">
         <f t="array" ref="R169">_xlfn.SWITCH(K169,200,_xlfn.XLOOKUP(J169,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
@@ -17336,7 +17336,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K170,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J170,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4599.6668903743312</v>
+        <v>4932.8032540106951</v>
       </c>
       <c r="M170" s="8">
         <f>LOOKUP(J170,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="N170" s="8" cm="1">
         <f t="array" ref="N170">_xlfn.SWITCH(K170,200,0,LOOKUP(K170,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O170" s="5" cm="1">
         <f t="array" ref="O170">_xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
@@ -17354,7 +17354,7 @@
       </c>
       <c r="P170" s="8">
         <f t="shared" si="12"/>
-        <v>4599.6668903743312</v>
+        <v>4932.8032540106951</v>
       </c>
       <c r="Q170" s="8" cm="1">
         <f t="array" ref="Q170">_xlfn.SWITCH(K170,200,_xlfn.XLOOKUP(J170,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
@@ -17362,7 +17362,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K170,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J170,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>103.14735391786525</v>
       </c>
       <c r="R170" s="8" cm="1">
         <f t="array" ref="R170">_xlfn.SWITCH(K170,200,_xlfn.XLOOKUP(J170,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
@@ -17428,7 +17428,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K171,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J171,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4747.1437139037434</v>
+        <v>5080.2800775401065</v>
       </c>
       <c r="M171" s="8">
         <f>LOOKUP(J171,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="N171" s="8" cm="1">
         <f t="array" ref="N171">_xlfn.SWITCH(K171,200,0,LOOKUP(K171,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O171" s="5" cm="1">
         <f t="array" ref="O171">_xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
@@ -17446,7 +17446,7 @@
       </c>
       <c r="P171" s="8">
         <f t="shared" si="12"/>
-        <v>4747.1437139037434</v>
+        <v>5080.2800775401065</v>
       </c>
       <c r="Q171" s="8" cm="1">
         <f t="array" ref="Q171">_xlfn.SWITCH(K171,200,_xlfn.XLOOKUP(J171,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
@@ -17454,7 +17454,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K171,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J171,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>105.35304392202997</v>
       </c>
       <c r="R171" s="8" cm="1">
         <f t="array" ref="R171">_xlfn.SWITCH(K171,200,_xlfn.XLOOKUP(J171,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
@@ -17546,7 +17546,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K172,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J172,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B172&amp;"|"&amp;E172,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>76.890871549800011</v>
       </c>
       <c r="R172" s="8" cm="1">
         <f t="array" ref="R172">_xlfn.SWITCH(K172,200,_xlfn.XLOOKUP(J172,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B172&amp;"|"&amp;E172,
@@ -17638,7 +17638,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K173,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J173,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B173&amp;"|"&amp;E173,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>80.199406556047052</v>
       </c>
       <c r="R173" s="8" cm="1">
         <f t="array" ref="R173">_xlfn.SWITCH(K173,200,_xlfn.XLOOKUP(J173,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B173&amp;"|"&amp;E173,
@@ -17730,7 +17730,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K174,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J174,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B174&amp;"|"&amp;E174,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>82.405096560211774</v>
       </c>
       <c r="R174" s="8" cm="1">
         <f t="array" ref="R174">_xlfn.SWITCH(K174,200,_xlfn.XLOOKUP(J174,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B174&amp;"|"&amp;E174,
@@ -17796,7 +17796,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K175,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J175,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>2949.6173262032089</v>
+        <v>3090.8900534759359</v>
       </c>
       <c r="M175" s="8">
         <f>LOOKUP(J175,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="N175" s="8" cm="1">
         <f t="array" ref="N175">_xlfn.SWITCH(K175,200,0,LOOKUP(K175,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O175" s="5" cm="1">
         <f t="array" ref="O175">_xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
@@ -17814,7 +17814,7 @@
       </c>
       <c r="P175" s="8">
         <f t="shared" si="12"/>
-        <v>2949.6173262032089</v>
+        <v>3090.8900534759359</v>
       </c>
       <c r="Q175" s="8" cm="1">
         <f t="array" ref="Q175">_xlfn.SWITCH(K175,200,_xlfn.XLOOKUP(J175,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
@@ -17822,7 +17822,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K175,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J175,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>79.942221832379687</v>
       </c>
       <c r="R175" s="8" cm="1">
         <f t="array" ref="R175">_xlfn.SWITCH(K175,200,_xlfn.XLOOKUP(J175,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
@@ -17888,7 +17888,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K176,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J176,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3023.3557379679146</v>
+        <v>3164.6284652406416</v>
       </c>
       <c r="M176" s="8">
         <f>LOOKUP(J176,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="N176" s="8" cm="1">
         <f t="array" ref="N176">_xlfn.SWITCH(K176,200,0,LOOKUP(K176,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O176" s="5" cm="1">
         <f t="array" ref="O176">_xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
@@ -17906,7 +17906,7 @@
       </c>
       <c r="P176" s="8">
         <f t="shared" si="12"/>
-        <v>3023.3557379679146</v>
+        <v>3164.6284652406416</v>
       </c>
       <c r="Q176" s="8" cm="1">
         <f t="array" ref="Q176">_xlfn.SWITCH(K176,200,_xlfn.XLOOKUP(J176,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
@@ -17914,7 +17914,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K176,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J176,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>81.045066834462034</v>
       </c>
       <c r="R176" s="8" cm="1">
         <f t="array" ref="R176">_xlfn.SWITCH(K176,200,_xlfn.XLOOKUP(J176,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
@@ -17980,7 +17980,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K177,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J177,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3244.5709732620321</v>
+        <v>3385.8437005347591</v>
       </c>
       <c r="M177" s="8">
         <f>LOOKUP(J177,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="N177" s="8" cm="1">
         <f t="array" ref="N177">_xlfn.SWITCH(K177,200,0,LOOKUP(K177,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O177" s="5" cm="1">
         <f t="array" ref="O177">_xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
@@ -17998,7 +17998,7 @@
       </c>
       <c r="P177" s="8">
         <f t="shared" si="12"/>
-        <v>3244.5709732620321</v>
+        <v>3385.8437005347591</v>
       </c>
       <c r="Q177" s="8" cm="1">
         <f t="array" ref="Q177">_xlfn.SWITCH(K177,200,_xlfn.XLOOKUP(J177,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
@@ -18006,7 +18006,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K177,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J177,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>84.353601840709103</v>
       </c>
       <c r="R177" s="8" cm="1">
         <f t="array" ref="R177">_xlfn.SWITCH(K177,200,_xlfn.XLOOKUP(J177,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
@@ -18072,7 +18072,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K178,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J178,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3613.2630320855615</v>
+        <v>3754.5357593582885</v>
       </c>
       <c r="M178" s="8">
         <f>LOOKUP(J178,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="N178" s="8" cm="1">
         <f t="array" ref="N178">_xlfn.SWITCH(K178,200,0,LOOKUP(K178,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O178" s="5" cm="1">
         <f t="array" ref="O178">_xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
@@ -18090,7 +18090,7 @@
       </c>
       <c r="P178" s="8">
         <f t="shared" si="12"/>
-        <v>3613.2630320855615</v>
+        <v>3754.5357593582885</v>
       </c>
       <c r="Q178" s="8" cm="1">
         <f t="array" ref="Q178">_xlfn.SWITCH(K178,200,_xlfn.XLOOKUP(J178,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
@@ -18098,7 +18098,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K178,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J178,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>89.867826851120867</v>
       </c>
       <c r="R178" s="8" cm="1">
         <f t="array" ref="R178">_xlfn.SWITCH(K178,200,_xlfn.XLOOKUP(J178,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
@@ -18164,7 +18164,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K179,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J179,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3604.4355080213904</v>
+        <v>3937.5718716577539</v>
       </c>
       <c r="M179" s="8">
         <f>LOOKUP(J179,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18172,7 +18172,7 @@
       </c>
       <c r="N179" s="8" cm="1">
         <f t="array" ref="N179">_xlfn.SWITCH(K179,200,0,LOOKUP(K179,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O179" s="5" cm="1">
         <f t="array" ref="O179">_xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
@@ -18182,7 +18182,7 @@
       </c>
       <c r="P179" s="8">
         <f t="shared" si="12"/>
-        <v>3604.4355080213904</v>
+        <v>3937.5718716577539</v>
       </c>
       <c r="Q179" s="8" cm="1">
         <f t="array" ref="Q179">_xlfn.SWITCH(K179,200,_xlfn.XLOOKUP(J179,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
@@ -18190,7 +18190,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K179,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J179,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.40495212328878</v>
       </c>
       <c r="R179" s="8" cm="1">
         <f t="array" ref="R179">_xlfn.SWITCH(K179,200,_xlfn.XLOOKUP(J179,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
@@ -18256,7 +18256,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K180,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J180,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3678.1739197860961</v>
+        <v>4011.3102834224601</v>
       </c>
       <c r="M180" s="8">
         <f>LOOKUP(J180,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18264,7 +18264,7 @@
       </c>
       <c r="N180" s="8" cm="1">
         <f t="array" ref="N180">_xlfn.SWITCH(K180,200,0,LOOKUP(K180,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O180" s="5" cm="1">
         <f t="array" ref="O180">_xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
@@ -18274,7 +18274,7 @@
       </c>
       <c r="P180" s="8">
         <f t="shared" si="12"/>
-        <v>3678.1739197860961</v>
+        <v>4011.3102834224601</v>
       </c>
       <c r="Q180" s="8" cm="1">
         <f t="array" ref="Q180">_xlfn.SWITCH(K180,200,_xlfn.XLOOKUP(J180,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
@@ -18282,7 +18282,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K180,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J180,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>88.507797125371127</v>
       </c>
       <c r="R180" s="8" cm="1">
         <f t="array" ref="R180">_xlfn.SWITCH(K180,200,_xlfn.XLOOKUP(J180,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
@@ -18348,7 +18348,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K181,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J181,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3899.3891550802136</v>
+        <v>4232.5255187165776</v>
       </c>
       <c r="M181" s="8">
         <f>LOOKUP(J181,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="N181" s="8" cm="1">
         <f t="array" ref="N181">_xlfn.SWITCH(K181,200,0,LOOKUP(K181,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O181" s="5" cm="1">
         <f t="array" ref="O181">_xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
@@ -18366,7 +18366,7 @@
       </c>
       <c r="P181" s="8">
         <f t="shared" si="12"/>
-        <v>3899.3891550802136</v>
+        <v>4232.5255187165776</v>
       </c>
       <c r="Q181" s="8" cm="1">
         <f t="array" ref="Q181">_xlfn.SWITCH(K181,200,_xlfn.XLOOKUP(J181,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
@@ -18374,7 +18374,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K181,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J181,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.816332131618196</v>
       </c>
       <c r="R181" s="8" cm="1">
         <f t="array" ref="R181">_xlfn.SWITCH(K181,200,_xlfn.XLOOKUP(J181,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
@@ -18440,7 +18440,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K182,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J182,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4120.6043903743312</v>
+        <v>4453.7407540106951</v>
       </c>
       <c r="M182" s="8">
         <f>LOOKUP(J182,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="N182" s="8" cm="1">
         <f t="array" ref="N182">_xlfn.SWITCH(K182,200,0,LOOKUP(K182,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O182" s="5" cm="1">
         <f t="array" ref="O182">_xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
@@ -18458,7 +18458,7 @@
       </c>
       <c r="P182" s="8">
         <f t="shared" si="12"/>
-        <v>4120.6043903743312</v>
+        <v>4453.7407540106951</v>
       </c>
       <c r="Q182" s="8" cm="1">
         <f t="array" ref="Q182">_xlfn.SWITCH(K182,200,_xlfn.XLOOKUP(J182,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
@@ -18466,7 +18466,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K182,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J182,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>95.124867137865238</v>
       </c>
       <c r="R182" s="8" cm="1">
         <f t="array" ref="R182">_xlfn.SWITCH(K182,200,_xlfn.XLOOKUP(J182,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
@@ -18532,7 +18532,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K183,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J183,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4268.0812139037434</v>
+        <v>4601.2175775401065</v>
       </c>
       <c r="M183" s="8">
         <f>LOOKUP(J183,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18540,7 +18540,7 @@
       </c>
       <c r="N183" s="8" cm="1">
         <f t="array" ref="N183">_xlfn.SWITCH(K183,200,0,LOOKUP(K183,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O183" s="5" cm="1">
         <f t="array" ref="O183">_xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
@@ -18550,7 +18550,7 @@
       </c>
       <c r="P183" s="8">
         <f t="shared" si="12"/>
-        <v>4268.0812139037434</v>
+        <v>4601.2175775401065</v>
       </c>
       <c r="Q183" s="8" cm="1">
         <f t="array" ref="Q183">_xlfn.SWITCH(K183,200,_xlfn.XLOOKUP(J183,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
@@ -18558,7 +18558,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K183,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J183,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>97.33055714202996</v>
       </c>
       <c r="R183" s="8" cm="1">
         <f t="array" ref="R183">_xlfn.SWITCH(K183,200,_xlfn.XLOOKUP(J183,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
@@ -18650,7 +18650,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K184,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J184,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B184&amp;"|"&amp;E184,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>87.012264754800015</v>
       </c>
       <c r="R184" s="8" cm="1">
         <f t="array" ref="R184">_xlfn.SWITCH(K184,200,_xlfn.XLOOKUP(J184,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B184&amp;"|"&amp;E184,
@@ -18742,7 +18742,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K185,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J185,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B185&amp;"|"&amp;E185,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.320799761047056</v>
       </c>
       <c r="R185" s="8" cm="1">
         <f t="array" ref="R185">_xlfn.SWITCH(K185,200,_xlfn.XLOOKUP(J185,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B185&amp;"|"&amp;E185,
@@ -18834,7 +18834,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K186,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J186,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B186&amp;"|"&amp;E186,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>92.526489765211778</v>
       </c>
       <c r="R186" s="8" cm="1">
         <f t="array" ref="R186">_xlfn.SWITCH(K186,200,_xlfn.XLOOKUP(J186,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B186&amp;"|"&amp;E186,
@@ -18900,7 +18900,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K187,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J187,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3566.4923262032089</v>
+        <v>3707.7650534759359</v>
       </c>
       <c r="M187" s="8">
         <f>LOOKUP(J187,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="N187" s="8" cm="1">
         <f t="array" ref="N187">_xlfn.SWITCH(K187,200,0,LOOKUP(K187,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O187" s="5" cm="1">
         <f t="array" ref="O187">_xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
@@ -18918,7 +18918,7 @@
       </c>
       <c r="P187" s="8">
         <f t="shared" si="12"/>
-        <v>3566.4923262032089</v>
+        <v>3707.7650534759359</v>
       </c>
       <c r="Q187" s="8" cm="1">
         <f t="array" ref="Q187">_xlfn.SWITCH(K187,200,_xlfn.XLOOKUP(J187,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
@@ -18926,7 +18926,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K187,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J187,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>90.063615037379691</v>
       </c>
       <c r="R187" s="8" cm="1">
         <f t="array" ref="R187">_xlfn.SWITCH(K187,200,_xlfn.XLOOKUP(J187,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
@@ -18992,7 +18992,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K188,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J188,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3640.2307379679146</v>
+        <v>3781.5034652406416</v>
       </c>
       <c r="M188" s="8">
         <f>LOOKUP(J188,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="N188" s="8" cm="1">
         <f t="array" ref="N188">_xlfn.SWITCH(K188,200,0,LOOKUP(K188,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O188" s="5" cm="1">
         <f t="array" ref="O188">_xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
@@ -19010,7 +19010,7 @@
       </c>
       <c r="P188" s="8">
         <f t="shared" si="12"/>
-        <v>3640.2307379679146</v>
+        <v>3781.5034652406416</v>
       </c>
       <c r="Q188" s="8" cm="1">
         <f t="array" ref="Q188">_xlfn.SWITCH(K188,200,_xlfn.XLOOKUP(J188,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
@@ -19018,7 +19018,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K188,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J188,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>91.166460039462038</v>
       </c>
       <c r="R188" s="8" cm="1">
         <f t="array" ref="R188">_xlfn.SWITCH(K188,200,_xlfn.XLOOKUP(J188,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
@@ -19084,7 +19084,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K189,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J189,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>3861.4459732620321</v>
+        <v>4002.7187005347591</v>
       </c>
       <c r="M189" s="8">
         <f>LOOKUP(J189,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="N189" s="8" cm="1">
         <f t="array" ref="N189">_xlfn.SWITCH(K189,200,0,LOOKUP(K189,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O189" s="5" cm="1">
         <f t="array" ref="O189">_xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
@@ -19102,7 +19102,7 @@
       </c>
       <c r="P189" s="8">
         <f t="shared" si="12"/>
-        <v>3861.4459732620321</v>
+        <v>4002.7187005347591</v>
       </c>
       <c r="Q189" s="8" cm="1">
         <f t="array" ref="Q189">_xlfn.SWITCH(K189,200,_xlfn.XLOOKUP(J189,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
@@ -19110,7 +19110,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K189,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J189,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>94.474995045709107</v>
       </c>
       <c r="R189" s="8" cm="1">
         <f t="array" ref="R189">_xlfn.SWITCH(K189,200,_xlfn.XLOOKUP(J189,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
@@ -19176,7 +19176,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K190,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J190,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4230.1380320855615</v>
+        <v>4371.4107593582885</v>
       </c>
       <c r="M190" s="8">
         <f>LOOKUP(J190,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="N190" s="8" cm="1">
         <f t="array" ref="N190">_xlfn.SWITCH(K190,200,0,LOOKUP(K190,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="O190" s="5" cm="1">
         <f t="array" ref="O190">_xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
@@ -19194,7 +19194,7 @@
       </c>
       <c r="P190" s="8">
         <f t="shared" si="12"/>
-        <v>4230.1380320855615</v>
+        <v>4371.4107593582885</v>
       </c>
       <c r="Q190" s="8" cm="1">
         <f t="array" ref="Q190">_xlfn.SWITCH(K190,200,_xlfn.XLOOKUP(J190,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
@@ -19202,7 +19202,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K190,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J190,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>99.989220056120871</v>
       </c>
       <c r="R190" s="8" cm="1">
         <f t="array" ref="R190">_xlfn.SWITCH(K190,200,_xlfn.XLOOKUP(J190,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
@@ -19268,7 +19268,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K191,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J191,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4221.31050802139</v>
+        <v>4554.4468716577539</v>
       </c>
       <c r="M191" s="8">
         <f>LOOKUP(J191,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19276,7 +19276,7 @@
       </c>
       <c r="N191" s="8" cm="1">
         <f t="array" ref="N191">_xlfn.SWITCH(K191,200,0,LOOKUP(K191,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O191" s="5" cm="1">
         <f t="array" ref="O191">_xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
@@ -19286,7 +19286,7 @@
       </c>
       <c r="P191" s="8">
         <f t="shared" si="12"/>
-        <v>4221.31050802139</v>
+        <v>4554.4468716577539</v>
       </c>
       <c r="Q191" s="8" cm="1">
         <f t="array" ref="Q191">_xlfn.SWITCH(K191,200,_xlfn.XLOOKUP(J191,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
@@ -19294,7 +19294,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K191,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J191,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>97.526345328288784</v>
       </c>
       <c r="R191" s="8" cm="1">
         <f t="array" ref="R191">_xlfn.SWITCH(K191,200,_xlfn.XLOOKUP(J191,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
@@ -19360,7 +19360,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K192,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J192,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4295.0489197860961</v>
+        <v>4628.1852834224601</v>
       </c>
       <c r="M192" s="8">
         <f>LOOKUP(J192,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19368,7 +19368,7 @@
       </c>
       <c r="N192" s="8" cm="1">
         <f t="array" ref="N192">_xlfn.SWITCH(K192,200,0,LOOKUP(K192,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O192" s="5" cm="1">
         <f t="array" ref="O192">_xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
@@ -19378,7 +19378,7 @@
       </c>
       <c r="P192" s="8">
         <f t="shared" si="12"/>
-        <v>4295.0489197860961</v>
+        <v>4628.1852834224601</v>
       </c>
       <c r="Q192" s="8" cm="1">
         <f t="array" ref="Q192">_xlfn.SWITCH(K192,200,_xlfn.XLOOKUP(J192,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
@@ -19386,7 +19386,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K192,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J192,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>98.629190330371131</v>
       </c>
       <c r="R192" s="8" cm="1">
         <f t="array" ref="R192">_xlfn.SWITCH(K192,200,_xlfn.XLOOKUP(J192,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
@@ -19452,7 +19452,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K193,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J193,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4516.2641550802136</v>
+        <v>4849.4005187165776</v>
       </c>
       <c r="M193" s="8">
         <f>LOOKUP(J193,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="N193" s="8" cm="1">
         <f t="array" ref="N193">_xlfn.SWITCH(K193,200,0,LOOKUP(K193,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O193" s="5" cm="1">
         <f t="array" ref="O193">_xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
@@ -19470,7 +19470,7 @@
       </c>
       <c r="P193" s="8">
         <f t="shared" si="12"/>
-        <v>4516.2641550802136</v>
+        <v>4849.4005187165776</v>
       </c>
       <c r="Q193" s="8" cm="1">
         <f t="array" ref="Q193">_xlfn.SWITCH(K193,200,_xlfn.XLOOKUP(J193,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
@@ -19478,7 +19478,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K193,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J193,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>101.9377253366182</v>
       </c>
       <c r="R193" s="8" cm="1">
         <f t="array" ref="R193">_xlfn.SWITCH(K193,200,_xlfn.XLOOKUP(J193,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
@@ -19544,7 +19544,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K194,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J194,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4737.4793903743312</v>
+        <v>5070.6157540106951</v>
       </c>
       <c r="M194" s="8">
         <f>LOOKUP(J194,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19552,7 +19552,7 @@
       </c>
       <c r="N194" s="8" cm="1">
         <f t="array" ref="N194">_xlfn.SWITCH(K194,200,0,LOOKUP(K194,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O194" s="5" cm="1">
         <f t="array" ref="O194">_xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
@@ -19562,7 +19562,7 @@
       </c>
       <c r="P194" s="8">
         <f t="shared" si="12"/>
-        <v>4737.4793903743312</v>
+        <v>5070.6157540106951</v>
       </c>
       <c r="Q194" s="8" cm="1">
         <f t="array" ref="Q194">_xlfn.SWITCH(K194,200,_xlfn.XLOOKUP(J194,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
@@ -19570,7 +19570,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K194,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J194,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>105.24626034286524</v>
       </c>
       <c r="R194" s="8" cm="1">
         <f t="array" ref="R194">_xlfn.SWITCH(K194,200,_xlfn.XLOOKUP(J194,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
@@ -19636,7 +19636,7 @@
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0), LOOKUP(K195,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26) + _xlfn.XLOOKUP(J195,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20) + _xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AI$14:$AI$21, "Not found", 0))</f>
-        <v>4884.9562139037434</v>
+        <v>5218.0925775401065</v>
       </c>
       <c r="M195" s="8">
         <f>LOOKUP(J195,Manufacture!$C$18:$N$18,Manufacture!$C$20:$N$20)</f>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="N195" s="8" cm="1">
         <f t="array" ref="N195">_xlfn.SWITCH(K195,200,0,LOOKUP(K195,Manufacture!$C$24:$D$24,Manufacture!$C$26:$D$26))</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
       <c r="O195" s="5" cm="1">
         <f t="array" ref="O195">_xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
@@ -19654,7 +19654,7 @@
       </c>
       <c r="P195" s="8">
         <f t="shared" si="12"/>
-        <v>4884.9562139037434</v>
+        <v>5218.0925775401065</v>
       </c>
       <c r="Q195" s="8" cm="1">
         <f t="array" ref="Q195">_xlfn.SWITCH(K195,200,_xlfn.XLOOKUP(J195,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
@@ -19662,7 +19662,7 @@
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0), LOOKUP(K195,Distribution!$C$24:$D$24,Distribution!$C$26:$D$26) + _xlfn.XLOOKUP(J195,Distribution!$C$18:$N$18,Distribution!$C$20:$N$20) + _xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AP$14:$AP$21, "Not found", 0))</f>
-        <v>0</v>
+        <v>107.45195034702996</v>
       </c>
       <c r="R195" s="8" cm="1">
         <f t="array" ref="R195">_xlfn.SWITCH(K195,200,_xlfn.XLOOKUP(J195,Installation!$C$18:$N$18,Installation!$C$20:$N$20) + _xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
@@ -20843,31 +20843,31 @@
       </c>
       <c r="AJ14" s="17">
         <f>LOOKUP($O14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>29.961716365757649</v>
       </c>
       <c r="AK14" s="4">
         <f>AN14+AO14</f>
-        <v>0</v>
+        <v>26.580660712941174</v>
       </c>
       <c r="AL14" s="4">
         <f>LOOKUP($Q14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>11.762963010169413</v>
       </c>
       <c r="AM14" s="4">
         <f>LOOKUP($O14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P14,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="AN14" s="4">
         <f>_xlfn.XLOOKUP($AA14,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="AO14" s="4">
         <f>_xlfn.XLOOKUP($AB14,Distribution!$C$5:$R$5,Distribution!$C$9:$R$9)</f>
-        <v>0</v>
+        <v>11.41366108235294</v>
       </c>
       <c r="AP14" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O14,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P14),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q14),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R14),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S14),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T14),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>18.610303635000001</v>
       </c>
       <c r="AQ14" s="17">
         <f>LOOKUP($O14,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P14,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q14,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R14,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S14,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T14,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -21054,31 +21054,31 @@
       </c>
       <c r="AJ15" s="17">
         <f>LOOKUP($O15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>21.380662571865884</v>
       </c>
       <c r="AK15" s="4">
         <f t="shared" ref="AK15:AK21" si="9">AN15+AO15</f>
-        <v>0</v>
+        <v>19.040550361442694</v>
       </c>
       <c r="AL15" s="4">
         <f>LOOKUP($Q15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>7.4724361132235293</v>
       </c>
       <c r="AM15" s="4">
         <f>LOOKUP($O15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P15,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="AN15" s="4">
         <f>_xlfn.XLOOKUP($AA15,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="AO15" s="4">
         <f>_xlfn.XLOOKUP($AB15,Distribution!$C$5:$R$5,Distribution!$C$9:$R$9)</f>
-        <v>0</v>
+        <v>7.6822718823529401</v>
       </c>
       <c r="AP15" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O15,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P15),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q15),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R15),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S15),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T15),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>17.91066816</v>
       </c>
       <c r="AQ15" s="17">
         <f>LOOKUP($O15,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P15,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q15,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R15,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S15,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T15,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -21265,31 +21265,31 @@
       </c>
       <c r="AJ16" s="17">
         <f>LOOKUP($O16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>39.615401883885887</v>
       </c>
       <c r="AK16" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>34.921413042352938</v>
       </c>
       <c r="AL16" s="4">
         <f>LOOKUP($Q16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>18.198753355588234</v>
       </c>
       <c r="AM16" s="4">
         <f>LOOKUP($O16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P16,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>21.41664852829765</v>
       </c>
       <c r="AN16" s="4">
         <f>_xlfn.XLOOKUP($AA16,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="AO16" s="4">
         <f>_xlfn.XLOOKUP($AB16,Distribution!$C$5:$R$5,Distribution!$C$9:$R$9)</f>
-        <v>0</v>
+        <v>19.754413411764709</v>
       </c>
       <c r="AP16" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O16,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P16),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q16),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R16),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S16),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T16),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>21.525451447500004</v>
       </c>
       <c r="AQ16" s="17">
         <f>LOOKUP($O16,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P16,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q16,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R16,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S16,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T16,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -21476,31 +21476,31 @@
       </c>
       <c r="AJ17" s="17">
         <f>LOOKUP($O17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>24.598557744575295</v>
       </c>
       <c r="AK17" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>19.890047214249883</v>
       </c>
       <c r="AL17" s="4">
         <f>LOOKUP($Q17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>10.690331285932942</v>
       </c>
       <c r="AM17" s="4">
         <f>LOOKUP($O17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P17,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>13.908226458642353</v>
       </c>
       <c r="AN17" s="4">
         <f>_xlfn.XLOOKUP($AA17,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>12.207775331896942</v>
       </c>
       <c r="AO17" s="4">
         <f>_xlfn.XLOOKUP($AB17,Distribution!$C$5:$R$5,Distribution!$C$9:$R$9)</f>
-        <v>0</v>
+        <v>7.6822718823529401</v>
       </c>
       <c r="AP17" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O17,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P17),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q17),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R17),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S17),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T17),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>17.91066816</v>
       </c>
       <c r="AQ17" s="17">
         <f>LOOKUP($O17,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P17,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q17,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R17,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S17,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T17,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -21689,31 +21689,31 @@
       </c>
       <c r="AJ18" s="17">
         <f>LOOKUP($O18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>35.288889030508237</v>
       </c>
       <c r="AK18" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="AL18" s="4">
         <f>LOOKUP($Q18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="AM18" s="4">
         <f>LOOKUP($O18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P18,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="AN18" s="4">
         <f>_xlfn.XLOOKUP($AA18,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="AO18" s="4">
         <f>_xlfn.XLOOKUP($AB18,Distribution!$C$5:$R$5,Distribution!$C$11:$R$11)</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="AP18" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O18,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P18),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q18),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R18),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S18),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T18),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>28.032061365000004</v>
       </c>
       <c r="AQ18" s="17">
         <f>LOOKUP($O18,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P18,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q18,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R18,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S18,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T18,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -21902,31 +21902,31 @@
       </c>
       <c r="AJ19" s="17">
         <f>LOOKUP($O19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>27.780466960852944</v>
       </c>
       <c r="AK19" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>26.722822243795633</v>
       </c>
       <c r="AL19" s="4">
         <f>LOOKUP($Q19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>14.944872226447059</v>
       </c>
       <c r="AM19" s="4">
         <f>LOOKUP($O19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P19,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>12.835594734405884</v>
       </c>
       <c r="AN19" s="4">
         <f>_xlfn.XLOOKUP($AA19,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="AO19" s="4">
         <f>_xlfn.XLOOKUP($AB19,Distribution!$C$5:$R$5,Distribution!$C$11:$R$11)</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="AP19" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O19,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P19),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q19),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R19),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S19),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T19),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>25.933154940000001</v>
       </c>
       <c r="AQ19" s="17">
         <f>LOOKUP($O19,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P19,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q19,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R19,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S19,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T19,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -22115,31 +22115,31 @@
       </c>
       <c r="AJ20" s="17">
         <f>LOOKUP($O20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>42.797311100163533</v>
       </c>
       <c r="AK20" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>40.408750101176473</v>
       </c>
       <c r="AL20" s="4">
         <f>LOOKUP($Q20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>20.308030847629414</v>
       </c>
       <c r="AM20" s="4">
         <f>LOOKUP($O20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P20,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>22.489280252534119</v>
       </c>
       <c r="AN20" s="4">
         <f>_xlfn.XLOOKUP($AA20,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="AO20" s="4">
         <f>_xlfn.XLOOKUP($AB20,Distribution!$C$5:$R$5,Distribution!$C$11:$R$11)</f>
-        <v>0</v>
+        <v>25.24175047058824</v>
       </c>
       <c r="AP20" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O20,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P20),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q20),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R20),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S20),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T20),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>29.664544140000004</v>
       </c>
       <c r="AQ20" s="17">
         <f>LOOKUP($O20,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P20,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q20,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R20,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S20,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T20,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -22328,31 +22328,31 @@
       </c>
       <c r="AJ21" s="17">
         <f>LOOKUP($O21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($Q21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>36.361520754744703</v>
       </c>
       <c r="AK21" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30.531543395294115</v>
       </c>
       <c r="AL21" s="4">
         <f>LOOKUP($Q21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($R21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4),0)</f>
-        <v>0</v>
+        <v>16.01750395068353</v>
       </c>
       <c r="AM21" s="4">
         <f>LOOKUP($O21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)+LOOKUP($P21,Distribution!$C$2:$K$2,Distribution!$C$4:$K$4)</f>
-        <v>0</v>
+        <v>20.344016804061177</v>
       </c>
       <c r="AN21" s="4">
         <f>_xlfn.XLOOKUP($AA21,Distribution!$C$5:$R$5,Distribution!$C$7:$R$7)</f>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="AO21" s="4">
         <f>_xlfn.XLOOKUP($AB21,Distribution!$C$5:$R$5,Distribution!$C$11:$R$11)</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="AP21" s="18">
         <f>LOOKUP(_xlfn.CEILING.MATH($O21,1),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($P21),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($Q21),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+LOOKUP(_xlfn.CEILING.MATH($R21),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($S21),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH($T21),Distribution!$C$21:$G$21,Distribution!$C$23:$G$23),0)</f>
-        <v>0</v>
+        <v>28.032061365000004</v>
       </c>
       <c r="AQ21" s="17">
         <f>LOOKUP($O21,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($P21,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($Q21,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+LOOKUP($R21,Installation!$C$2:$K$2,Installation!$C$4:$K$4)+_xlfn.IFNA(LOOKUP($S21,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP($T21,Installation!$C$2:$K$2,Installation!$C$4:$K$4),0)</f>
@@ -22454,7 +22454,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:H13"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23214,20 +23214,20 @@
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <v>530</v>
+        <v>678</v>
       </c>
       <c r="D25" s="3">
-        <v>1216</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <f>21*C25/$B25</f>
-        <v>505.90909090909093</v>
+        <v>647.18181818181813</v>
       </c>
       <c r="D26" s="7">
         <f>21*D25/$B25</f>
-        <v>1160.7272727272727</v>
+        <v>1493.8636363636363</v>
       </c>
     </row>
   </sheetData>
@@ -23240,7 +23240,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23298,69 +23298,69 @@
         <v>17</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>3.0245574743999999</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3.8928783940200007</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>4.7611993136400006</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>5.6295202332600001</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>6.4978411528800004</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>7.3661620724999999</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>8.2344829921200002</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>9.1028039117400006</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>9.9711248313600009</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <f>21*C3/$B3</f>
-        <v>0</v>
+        <v>3.7362180566117646</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:K4" si="0">21*D3/$B3</f>
-        <v>0</v>
+        <v>4.8088497808482362</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.8814815050847065</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9541132293211767</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0267449535576478</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0993766777941172</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.172008402030588</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.244640126267059</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.317271850503531</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -23423,38 +23423,37 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="10">
-        <f>J6-((J5-H5)*(J6-I6)/(J5-I5))</f>
-        <v>0</v>
+        <v>9.1947968640250384</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>9.8824847924880004</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>11.080266056244</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>12.278047319999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -23465,47 +23464,47 @@
       <c r="G7" s="7"/>
       <c r="H7" s="11">
         <f t="shared" ref="H7:R7" si="1">21*H6/$B6</f>
-        <v>0</v>
+        <v>11.358278479089753</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.207775331896942</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.687387481242588</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="P7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.166999630588233</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -23516,15 +23515,15 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>6.2189819999999996</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>6.2189819999999996</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>9.2396303999999994</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -23532,7 +23531,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>15.991668000000001</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -23543,17 +23542,17 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <f>21*C8/$B8</f>
-        <v>0</v>
+        <v>7.6822718823529401</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7">
         <f>21*E8/$B8</f>
-        <v>0</v>
+        <v>7.6822718823529401</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7">
         <f>21*G8/$B8</f>
-        <v>0</v>
+        <v>11.41366108235294</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -23562,7 +23561,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7">
         <f>21*M8/$B8</f>
-        <v>0</v>
+        <v>19.754413411764709</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -23578,22 +23577,22 @@
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>12.437963999999999</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>12.437963999999999</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>12.437963999999999</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>20.433798000000003</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -23605,25 +23604,25 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
         <f>21*C10/$B10</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
         <f>21*E10/$B10</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
         <f>21*I10/$B10</f>
-        <v>0</v>
+        <v>15.36454376470588</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7">
         <f>21*L10/$B10</f>
-        <v>0</v>
+        <v>25.24175047058824</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -23663,48 +23662,48 @@
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>3.1272393599999999</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>3.5200637579520002</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>3.8820902400000001</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>4.4212694399999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>5.6074636799999995</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>6.5779862400000004</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <f t="shared" ref="C14:H14" si="2">21*C13/$B13</f>
-        <v>0</v>
+        <v>3.8630603858823527</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3483140539407055</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7955232376470587</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4615681317647056</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9268668988235289</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.1257477082352949</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -23738,48 +23737,48 @@
         <v>17</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>11.30195144232</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>13.693505391720002</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>15.287874691320001</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>18.476613290520003</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>25.917003355320006</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>31.231567687320002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="7">
         <f t="shared" ref="C17:H17" si="3">21*C16/$B16</f>
-        <v>0</v>
+        <v>13.961234134630589</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.915506660360002</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.885021677512942</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.824051711818829</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>32.015121791865887</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>38.580171849042358</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -23831,90 +23830,90 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>44.174761785000001</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>45.067541072400005</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>45.960320359800001</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>46.853099647200011</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>47.745878934600007</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>48.638658222000004</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>49.531437509400007</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>50.424216796799996</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>51.316996084199999</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>52.209775371600003</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>53.102554659000006</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>53.995333946400002</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <f>21*C19/$B19</f>
-        <v>0</v>
+        <v>54.568823381470594</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:N20" si="4">21*D19/$B19</f>
-        <v>0</v>
+        <v>55.671668383552948</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.774513385635295</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57.877358387717663</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>58.98020338980001</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60.083048391882357</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>61.185893393964705</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>62.288738396047059</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63.391583398129406</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>64.494428400211774</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65.597273402294121</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.700118404376468</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -23945,41 +23944,41 @@
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>3.2338706400000001</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3.2338706400000001</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>3.5892410400000001</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>3.8557688400000001</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>4.83303744</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
         <f>21*C22/$B22</f>
-        <v>0</v>
+        <v>4.2444552150000003</v>
       </c>
       <c r="D23" s="7">
         <f>21*D22/$B22</f>
-        <v>0</v>
+        <v>4.2444552150000003</v>
       </c>
       <c r="E23" s="7">
         <f>21*E22/$B22</f>
-        <v>0</v>
+        <v>4.7108788649999997</v>
       </c>
       <c r="F23" s="7">
         <f>21*F22/$B22</f>
-        <v>0</v>
+        <v>5.0606966025000002</v>
       </c>
       <c r="G23" s="7">
         <f>21*G22/$B22</f>
-        <v>0</v>
+        <v>6.3433616400000004</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -24001,20 +24000,20 @@
         <v>22</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>7.8180984000000011</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>15.636196800000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <f>21*C25/$B25</f>
-        <v>0</v>
+        <v>7.462730290909092</v>
       </c>
       <c r="D26" s="7">
         <f>21*D25/$B25</f>
-        <v>0</v>
+        <v>14.925460581818184</v>
       </c>
     </row>
   </sheetData>
@@ -25598,7 +25597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8332C20-8627-480A-AF53-8D7476AB17FA}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
